--- a/German_Tales/Data/German_tales_AL_old.xlsx
+++ b/German_Tales/Data/German_tales_AL_old.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22365" windowHeight="9255"/>
+    <workbookView windowWidth="28125" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -7383,8 +7383,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
@@ -7417,10 +7417,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7439,17 +7463,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7460,8 +7498,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -7478,63 +7540,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7546,23 +7562,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7619,13 +7619,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7637,49 +7673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7691,37 +7685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7733,25 +7697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7769,13 +7715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7787,19 +7727,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7822,6 +7822,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7837,31 +7864,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7881,26 +7894,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7922,148 +7922,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8432,8 +8432,8 @@
   <sheetPr/>
   <dimension ref="A1:U1397"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1004" sqref="C1004"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="M488" sqref="M488:Q488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -8749,8 +8749,14 @@
       <c r="D7" s="1">
         <v>5</v>
       </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
       <c r="F7" s="1">
         <v>17</v>
+      </c>
+      <c r="G7" s="1">
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>21</v>
@@ -29572,7 +29578,7 @@
         <v>1083</v>
       </c>
       <c r="D447">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E447">
         <v>64</v>

--- a/German_Tales/Data/German_tales_AL_old.xlsx
+++ b/German_Tales/Data/German_tales_AL_old.xlsx
@@ -7383,10 +7383,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -7417,37 +7417,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -7455,67 +7432,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -7530,7 +7448,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -7547,15 +7471,53 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7563,6 +7525,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7619,7 +7619,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7631,103 +7763,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7739,67 +7799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7824,18 +7824,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7845,6 +7838,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7860,21 +7862,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7896,11 +7883,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7919,151 +7904,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8432,8 +8432,8 @@
   <sheetPr/>
   <dimension ref="A1:U1397"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="M488" sqref="M488:Q488"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="I491" sqref="I491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -27053,4368 +27053,4464 @@
         <v>937</v>
       </c>
     </row>
-    <row r="390" spans="1:17">
-      <c r="A390">
+    <row r="390" s="1" customFormat="1" spans="1:17">
+      <c r="A390" s="1">
         <v>389</v>
       </c>
-      <c r="B390">
-        <v>2</v>
-      </c>
-      <c r="C390" t="s">
+      <c r="B390" s="1">
+        <v>2</v>
+      </c>
+      <c r="C390" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="D390">
+      <c r="D390" s="1">
         <v>5</v>
       </c>
-      <c r="E390">
+      <c r="E390" s="1">
         <v>5</v>
       </c>
-      <c r="F390">
+      <c r="F390" s="1">
         <v>17</v>
       </c>
-      <c r="G390">
+      <c r="G390" s="1">
         <v>17</v>
       </c>
-      <c r="H390" t="s">
-        <v>21</v>
-      </c>
-      <c r="I390" t="s">
-        <v>22</v>
-      </c>
-      <c r="J390" t="s">
-        <v>22</v>
-      </c>
-      <c r="M390" t="s">
+      <c r="H390" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I390" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J390" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K390" s="7"/>
+      <c r="M390" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="O390" t="s">
+      <c r="O390" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="P390" t="s">
+      <c r="P390" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="Q390" t="s">
+      <c r="Q390" s="1" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="391" spans="1:17">
-      <c r="A391">
+    <row r="391" s="1" customFormat="1" spans="1:17">
+      <c r="A391" s="1">
         <v>390</v>
       </c>
-      <c r="B391">
-        <v>2</v>
-      </c>
-      <c r="C391" t="s">
+      <c r="B391" s="1">
+        <v>2</v>
+      </c>
+      <c r="C391" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="D391">
+      <c r="D391" s="1">
         <v>5</v>
       </c>
-      <c r="E391">
+      <c r="E391" s="1">
         <v>7</v>
       </c>
-      <c r="F391">
+      <c r="F391" s="1">
         <v>17</v>
       </c>
-      <c r="G391">
+      <c r="G391" s="1">
         <v>19</v>
       </c>
-      <c r="H391" t="s">
-        <v>21</v>
-      </c>
-      <c r="I391" t="s">
-        <v>22</v>
-      </c>
-      <c r="J391" t="s">
-        <v>22</v>
-      </c>
-      <c r="M391" t="s">
+      <c r="H391" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I391" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J391" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K391" s="7"/>
+      <c r="M391" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="O391" t="s">
+      <c r="O391" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="P391" t="s">
+      <c r="P391" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="Q391" t="s">
+      <c r="Q391" s="1" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="392" spans="1:17">
-      <c r="A392">
+    <row r="392" s="1" customFormat="1" spans="1:17">
+      <c r="A392" s="1">
         <v>391</v>
       </c>
-      <c r="B392">
-        <v>2</v>
-      </c>
-      <c r="C392" t="s">
+      <c r="B392" s="1">
+        <v>2</v>
+      </c>
+      <c r="C392" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="D392">
+      <c r="D392" s="1">
         <v>7</v>
       </c>
-      <c r="E392">
+      <c r="E392" s="1">
         <v>9</v>
       </c>
-      <c r="F392">
+      <c r="F392" s="1">
         <v>19</v>
       </c>
-      <c r="G392">
-        <v>21</v>
-      </c>
-      <c r="H392" t="s">
-        <v>21</v>
-      </c>
-      <c r="I392" t="s">
-        <v>22</v>
-      </c>
-      <c r="J392" t="s">
-        <v>21</v>
-      </c>
-      <c r="M392" t="s">
+      <c r="G392" s="1">
+        <v>21</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I392" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J392" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K392" s="7"/>
+      <c r="M392" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="O392" t="s">
+      <c r="O392" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="P392" t="s">
+      <c r="P392" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="Q392" t="s">
+      <c r="Q392" s="1" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="393" spans="1:17">
-      <c r="A393">
+    <row r="393" s="1" customFormat="1" spans="1:17">
+      <c r="A393" s="1">
         <v>392</v>
       </c>
-      <c r="B393">
-        <v>2</v>
-      </c>
-      <c r="C393" t="s">
+      <c r="B393" s="1">
+        <v>2</v>
+      </c>
+      <c r="C393" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="D393">
+      <c r="D393" s="1">
         <v>9</v>
       </c>
-      <c r="E393">
+      <c r="E393" s="1">
         <v>9</v>
       </c>
-      <c r="F393">
-        <v>21</v>
-      </c>
-      <c r="G393">
-        <v>21</v>
-      </c>
-      <c r="H393" t="s">
-        <v>22</v>
-      </c>
-      <c r="I393" t="s">
-        <v>22</v>
-      </c>
-      <c r="J393" t="s">
-        <v>22</v>
-      </c>
-      <c r="M393" t="s">
+      <c r="F393" s="1">
+        <v>21</v>
+      </c>
+      <c r="G393" s="1">
+        <v>21</v>
+      </c>
+      <c r="H393" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I393" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J393" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K393" s="7"/>
+      <c r="M393" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="O393" t="s">
+      <c r="O393" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="P393" t="s">
+      <c r="P393" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="Q393" t="s">
+      <c r="Q393" s="1" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="394" spans="1:17">
-      <c r="A394">
+    <row r="394" s="1" customFormat="1" spans="1:17">
+      <c r="A394" s="1">
         <v>393</v>
       </c>
-      <c r="B394">
-        <v>2</v>
-      </c>
-      <c r="C394" t="s">
+      <c r="B394" s="1">
+        <v>2</v>
+      </c>
+      <c r="C394" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="D394">
+      <c r="D394" s="1">
         <v>10</v>
       </c>
-      <c r="E394">
+      <c r="E394" s="1">
         <v>10</v>
       </c>
-      <c r="F394">
-        <v>22</v>
-      </c>
-      <c r="G394">
-        <v>22</v>
-      </c>
-      <c r="H394" t="s">
-        <v>21</v>
-      </c>
-      <c r="I394" t="s">
-        <v>22</v>
-      </c>
-      <c r="J394" t="s">
-        <v>21</v>
-      </c>
-      <c r="M394" t="s">
+      <c r="F394" s="1">
+        <v>22</v>
+      </c>
+      <c r="G394" s="1">
+        <v>22</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I394" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J394" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K394" s="7"/>
+      <c r="M394" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="O394" t="s">
+      <c r="O394" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="P394" t="s">
+      <c r="P394" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="Q394" t="s">
+      <c r="Q394" s="1" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="395" spans="1:17">
-      <c r="A395">
+    <row r="395" s="1" customFormat="1" spans="1:17">
+      <c r="A395" s="1">
         <v>394</v>
       </c>
-      <c r="B395">
-        <v>2</v>
-      </c>
-      <c r="C395" t="s">
+      <c r="B395" s="1">
+        <v>2</v>
+      </c>
+      <c r="C395" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="D395">
+      <c r="D395" s="1">
         <v>10</v>
       </c>
-      <c r="E395">
+      <c r="E395" s="1">
         <v>11</v>
       </c>
-      <c r="F395">
-        <v>22</v>
-      </c>
-      <c r="G395">
+      <c r="F395" s="1">
+        <v>22</v>
+      </c>
+      <c r="G395" s="1">
         <v>23</v>
       </c>
-      <c r="H395" t="s">
-        <v>21</v>
-      </c>
-      <c r="I395" t="s">
-        <v>22</v>
-      </c>
-      <c r="J395" t="s">
-        <v>22</v>
-      </c>
-      <c r="M395" t="s">
+      <c r="H395" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I395" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J395" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K395" s="7"/>
+      <c r="M395" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="O395" t="s">
+      <c r="O395" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="P395" t="s">
+      <c r="P395" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="Q395" t="s">
+      <c r="Q395" s="1" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="396" spans="1:17">
-      <c r="A396">
+    <row r="396" s="1" customFormat="1" spans="1:17">
+      <c r="A396" s="1">
         <v>395</v>
       </c>
-      <c r="B396">
-        <v>2</v>
-      </c>
-      <c r="C396" t="s">
+      <c r="B396" s="1">
+        <v>2</v>
+      </c>
+      <c r="C396" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="D396">
+      <c r="D396" s="1">
         <v>11</v>
       </c>
-      <c r="E396">
+      <c r="E396" s="1">
         <v>12</v>
       </c>
-      <c r="F396">
+      <c r="F396" s="1">
         <v>23</v>
       </c>
-      <c r="G396">
+      <c r="G396" s="1">
         <v>24</v>
       </c>
-      <c r="H396" t="s">
-        <v>21</v>
-      </c>
-      <c r="I396" t="s">
-        <v>22</v>
-      </c>
-      <c r="J396" t="s">
-        <v>22</v>
-      </c>
-      <c r="M396" t="s">
+      <c r="H396" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I396" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J396" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K396" s="7"/>
+      <c r="M396" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="O396" t="s">
+      <c r="O396" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="P396" t="s">
+      <c r="P396" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="Q396" t="s">
+      <c r="Q396" s="1" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="397" spans="1:17">
-      <c r="A397">
+    <row r="397" s="1" customFormat="1" spans="1:17">
+      <c r="A397" s="1">
         <v>396</v>
       </c>
-      <c r="B397">
-        <v>2</v>
-      </c>
-      <c r="C397" t="s">
+      <c r="B397" s="1">
+        <v>2</v>
+      </c>
+      <c r="C397" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="D397">
+      <c r="D397" s="1">
         <v>12</v>
       </c>
-      <c r="E397">
+      <c r="E397" s="1">
         <v>12</v>
       </c>
-      <c r="F397">
+      <c r="F397" s="1">
         <v>24</v>
       </c>
-      <c r="G397">
+      <c r="G397" s="1">
         <v>24</v>
       </c>
-      <c r="H397" t="s">
-        <v>21</v>
-      </c>
-      <c r="I397" t="s">
-        <v>22</v>
-      </c>
-      <c r="J397" t="s">
-        <v>22</v>
-      </c>
-      <c r="M397" t="s">
+      <c r="H397" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I397" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J397" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K397" s="7"/>
+      <c r="M397" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="O397" t="s">
+      <c r="O397" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="P397" t="s">
+      <c r="P397" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="Q397" t="s">
+      <c r="Q397" s="1" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="398" spans="1:17">
-      <c r="A398">
+    <row r="398" s="1" customFormat="1" spans="1:17">
+      <c r="A398" s="1">
         <v>397</v>
       </c>
-      <c r="B398">
-        <v>2</v>
-      </c>
-      <c r="C398" t="s">
+      <c r="B398" s="1">
+        <v>2</v>
+      </c>
+      <c r="C398" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="D398">
+      <c r="D398" s="1">
         <v>12</v>
       </c>
-      <c r="E398">
+      <c r="E398" s="1">
         <v>13</v>
       </c>
-      <c r="F398">
+      <c r="F398" s="1">
         <v>24</v>
       </c>
-      <c r="G398">
+      <c r="G398" s="1">
         <v>25</v>
       </c>
-      <c r="H398" t="s">
-        <v>21</v>
-      </c>
-      <c r="I398" t="s">
-        <v>22</v>
-      </c>
-      <c r="J398" t="s">
-        <v>22</v>
-      </c>
-      <c r="M398" t="s">
+      <c r="H398" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I398" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J398" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K398" s="7"/>
+      <c r="M398" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="O398" t="s">
+      <c r="O398" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="P398" t="s">
+      <c r="P398" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="Q398" t="s">
+      <c r="Q398" s="1" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="399" spans="1:17">
-      <c r="A399">
+    <row r="399" s="1" customFormat="1" spans="1:17">
+      <c r="A399" s="1">
         <v>398</v>
       </c>
-      <c r="B399">
-        <v>2</v>
-      </c>
-      <c r="C399" t="s">
+      <c r="B399" s="1">
+        <v>2</v>
+      </c>
+      <c r="C399" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="D399">
+      <c r="D399" s="1">
         <v>13</v>
       </c>
-      <c r="E399">
+      <c r="E399" s="1">
         <v>13</v>
       </c>
-      <c r="F399">
+      <c r="F399" s="1">
         <v>25</v>
       </c>
-      <c r="G399">
+      <c r="G399" s="1">
         <v>25</v>
       </c>
-      <c r="H399" t="s">
-        <v>21</v>
-      </c>
-      <c r="I399" t="s">
-        <v>22</v>
-      </c>
-      <c r="J399" t="s">
-        <v>22</v>
-      </c>
-      <c r="M399" t="s">
+      <c r="H399" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I399" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J399" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K399" s="7"/>
+      <c r="M399" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="O399" t="s">
+      <c r="O399" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="P399" t="s">
+      <c r="P399" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="Q399" t="s">
+      <c r="Q399" s="1" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="400" spans="1:17">
-      <c r="A400">
+    <row r="400" s="1" customFormat="1" spans="1:17">
+      <c r="A400" s="1">
         <v>399</v>
       </c>
-      <c r="B400">
-        <v>2</v>
-      </c>
-      <c r="C400" t="s">
+      <c r="B400" s="1">
+        <v>2</v>
+      </c>
+      <c r="C400" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="D400">
+      <c r="D400" s="1">
         <v>13</v>
       </c>
-      <c r="E400">
+      <c r="E400" s="1">
         <v>14</v>
       </c>
-      <c r="F400">
+      <c r="F400" s="1">
         <v>25</v>
       </c>
-      <c r="G400">
+      <c r="G400" s="1">
         <v>26</v>
       </c>
-      <c r="H400" t="s">
-        <v>21</v>
-      </c>
-      <c r="I400" t="s">
-        <v>22</v>
-      </c>
-      <c r="J400" t="s">
-        <v>22</v>
-      </c>
-      <c r="M400" t="s">
+      <c r="H400" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I400" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J400" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K400" s="7"/>
+      <c r="M400" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="O400" t="s">
+      <c r="O400" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="P400" t="s">
+      <c r="P400" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="Q400" t="s">
+      <c r="Q400" s="1" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="401" spans="1:17">
-      <c r="A401">
+    <row r="401" s="1" customFormat="1" spans="1:17">
+      <c r="A401" s="1">
         <v>400</v>
       </c>
-      <c r="B401">
-        <v>2</v>
-      </c>
-      <c r="C401" t="s">
+      <c r="B401" s="1">
+        <v>2</v>
+      </c>
+      <c r="C401" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="D401">
+      <c r="D401" s="1">
         <v>14</v>
       </c>
-      <c r="E401">
+      <c r="E401" s="1">
         <v>15</v>
       </c>
-      <c r="F401">
+      <c r="F401" s="1">
         <v>26</v>
       </c>
-      <c r="G401">
+      <c r="G401" s="1">
         <v>27</v>
       </c>
-      <c r="H401" t="s">
-        <v>22</v>
-      </c>
-      <c r="I401" t="s">
-        <v>22</v>
-      </c>
-      <c r="J401" t="s">
-        <v>22</v>
-      </c>
-      <c r="M401" t="s">
+      <c r="H401" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I401" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J401" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K401" s="7"/>
+      <c r="M401" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="O401" t="s">
+      <c r="O401" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="P401" t="s">
+      <c r="P401" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="Q401" t="s">
+      <c r="Q401" s="1" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="402" spans="1:17">
-      <c r="A402">
+    <row r="402" s="1" customFormat="1" spans="1:17">
+      <c r="A402" s="1">
         <v>401</v>
       </c>
-      <c r="B402">
-        <v>2</v>
-      </c>
-      <c r="C402" t="s">
+      <c r="B402" s="1">
+        <v>2</v>
+      </c>
+      <c r="C402" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="D402">
+      <c r="D402" s="1">
         <v>15</v>
       </c>
-      <c r="E402">
+      <c r="E402" s="1">
         <v>15</v>
       </c>
-      <c r="F402">
+      <c r="F402" s="1">
         <v>27</v>
       </c>
-      <c r="G402">
+      <c r="G402" s="1">
         <v>27</v>
       </c>
-      <c r="H402" t="s">
-        <v>21</v>
-      </c>
-      <c r="I402" t="s">
-        <v>22</v>
-      </c>
-      <c r="J402" t="s">
-        <v>21</v>
-      </c>
-      <c r="M402" t="s">
+      <c r="H402" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I402" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J402" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K402" s="7"/>
+      <c r="M402" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="O402" t="s">
+      <c r="O402" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="P402" t="s">
+      <c r="P402" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="Q402" t="s">
+      <c r="Q402" s="1" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="403" spans="1:17">
-      <c r="A403">
+    <row r="403" s="1" customFormat="1" spans="1:17">
+      <c r="A403" s="1">
         <v>402</v>
       </c>
-      <c r="B403">
-        <v>2</v>
-      </c>
-      <c r="C403" t="s">
+      <c r="B403" s="1">
+        <v>2</v>
+      </c>
+      <c r="C403" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="D403">
+      <c r="D403" s="1">
         <v>16</v>
       </c>
-      <c r="E403">
+      <c r="E403" s="1">
         <v>16</v>
       </c>
-      <c r="F403">
+      <c r="F403" s="1">
         <v>28</v>
       </c>
-      <c r="G403">
+      <c r="G403" s="1">
         <v>28</v>
       </c>
-      <c r="H403" t="s">
-        <v>21</v>
-      </c>
-      <c r="I403" t="s">
-        <v>22</v>
-      </c>
-      <c r="J403" t="s">
-        <v>22</v>
-      </c>
-      <c r="M403" t="s">
+      <c r="H403" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I403" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J403" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K403" s="7"/>
+      <c r="M403" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="O403" t="s">
+      <c r="O403" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="P403" t="s">
+      <c r="P403" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="Q403" t="s">
+      <c r="Q403" s="1" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="404" spans="1:17">
-      <c r="A404">
+    <row r="404" s="1" customFormat="1" spans="1:17">
+      <c r="A404" s="1">
         <v>403</v>
       </c>
-      <c r="B404">
-        <v>2</v>
-      </c>
-      <c r="C404" t="s">
+      <c r="B404" s="1">
+        <v>2</v>
+      </c>
+      <c r="C404" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="D404">
+      <c r="D404" s="1">
         <v>16</v>
       </c>
-      <c r="E404">
+      <c r="E404" s="1">
         <v>16</v>
       </c>
-      <c r="F404">
+      <c r="F404" s="1">
         <v>28</v>
       </c>
-      <c r="G404">
+      <c r="G404" s="1">
         <v>28</v>
       </c>
-      <c r="H404" t="s">
-        <v>21</v>
-      </c>
-      <c r="I404" t="s">
-        <v>22</v>
-      </c>
-      <c r="J404" t="s">
-        <v>22</v>
-      </c>
-      <c r="M404" t="s">
+      <c r="H404" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I404" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J404" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K404" s="7"/>
+      <c r="M404" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="O404" t="s">
+      <c r="O404" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="P404" t="s">
+      <c r="P404" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="Q404" t="s">
+      <c r="Q404" s="1" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="405" spans="1:17">
-      <c r="A405">
+    <row r="405" s="1" customFormat="1" spans="1:17">
+      <c r="A405" s="1">
         <v>404</v>
       </c>
-      <c r="B405">
-        <v>2</v>
-      </c>
-      <c r="C405" t="s">
+      <c r="B405" s="1">
+        <v>2</v>
+      </c>
+      <c r="C405" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="D405">
+      <c r="D405" s="1">
         <v>16</v>
       </c>
-      <c r="E405">
+      <c r="E405" s="1">
         <v>17</v>
       </c>
-      <c r="F405">
+      <c r="F405" s="1">
         <v>28</v>
       </c>
-      <c r="G405">
+      <c r="G405" s="1">
         <v>29</v>
       </c>
-      <c r="H405" t="s">
-        <v>21</v>
-      </c>
-      <c r="I405" t="s">
-        <v>22</v>
-      </c>
-      <c r="J405" t="s">
-        <v>22</v>
-      </c>
-      <c r="M405" t="s">
+      <c r="H405" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I405" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J405" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K405" s="7"/>
+      <c r="M405" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="O405" t="s">
+      <c r="O405" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="P405" t="s">
+      <c r="P405" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="Q405" t="s">
+      <c r="Q405" s="1" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="406" spans="1:17">
-      <c r="A406">
+    <row r="406" s="1" customFormat="1" spans="1:17">
+      <c r="A406" s="1">
         <v>405</v>
       </c>
-      <c r="B406">
-        <v>2</v>
-      </c>
-      <c r="C406" t="s">
+      <c r="B406" s="1">
+        <v>2</v>
+      </c>
+      <c r="C406" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="D406">
+      <c r="D406" s="1">
         <v>17</v>
       </c>
-      <c r="E406">
+      <c r="E406" s="1">
         <v>18</v>
       </c>
-      <c r="F406">
+      <c r="F406" s="1">
         <v>29</v>
       </c>
-      <c r="G406">
+      <c r="G406" s="1">
         <v>30</v>
       </c>
-      <c r="H406" t="s">
-        <v>21</v>
-      </c>
-      <c r="I406" t="s">
-        <v>22</v>
-      </c>
-      <c r="J406" t="s">
-        <v>22</v>
-      </c>
-      <c r="M406" t="s">
+      <c r="H406" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I406" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J406" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K406" s="7"/>
+      <c r="M406" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="O406" t="s">
+      <c r="O406" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="P406" t="s">
+      <c r="P406" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="Q406" t="s">
+      <c r="Q406" s="1" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="407" spans="1:17">
-      <c r="A407">
+    <row r="407" s="1" customFormat="1" spans="1:17">
+      <c r="A407" s="1">
         <v>406</v>
       </c>
-      <c r="B407">
-        <v>2</v>
-      </c>
-      <c r="C407" t="s">
+      <c r="B407" s="1">
+        <v>2</v>
+      </c>
+      <c r="C407" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="D407">
+      <c r="D407" s="1">
         <v>18</v>
       </c>
-      <c r="E407">
+      <c r="E407" s="1">
         <v>18</v>
       </c>
-      <c r="F407">
+      <c r="F407" s="1">
         <v>30</v>
       </c>
-      <c r="G407">
+      <c r="G407" s="1">
         <v>30</v>
       </c>
-      <c r="H407" t="s">
-        <v>21</v>
-      </c>
-      <c r="I407" t="s">
-        <v>22</v>
-      </c>
-      <c r="J407" t="s">
-        <v>22</v>
-      </c>
-      <c r="M407" t="s">
+      <c r="H407" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I407" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J407" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K407" s="7"/>
+      <c r="M407" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="O407" t="s">
+      <c r="O407" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="P407" t="s">
+      <c r="P407" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="Q407" t="s">
+      <c r="Q407" s="1" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="408" spans="1:17">
-      <c r="A408">
+    <row r="408" s="1" customFormat="1" spans="1:17">
+      <c r="A408" s="1">
         <v>407</v>
       </c>
-      <c r="B408">
-        <v>2</v>
-      </c>
-      <c r="C408" t="s">
+      <c r="B408" s="1">
+        <v>2</v>
+      </c>
+      <c r="C408" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="D408">
+      <c r="D408" s="1">
         <v>19</v>
       </c>
-      <c r="E408">
+      <c r="E408" s="1">
         <v>19</v>
       </c>
-      <c r="F408">
+      <c r="F408" s="1">
         <v>31</v>
       </c>
-      <c r="G408">
+      <c r="G408" s="1">
         <v>31</v>
       </c>
-      <c r="H408" t="s">
-        <v>21</v>
-      </c>
-      <c r="I408" t="s">
-        <v>22</v>
-      </c>
-      <c r="J408" t="s">
-        <v>22</v>
-      </c>
-      <c r="M408" t="s">
+      <c r="H408" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I408" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J408" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K408" s="7"/>
+      <c r="M408" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="O408" t="s">
+      <c r="O408" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="P408" t="s">
+      <c r="P408" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="Q408" t="s">
+      <c r="Q408" s="1" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="409" spans="1:17">
-      <c r="A409">
+    <row r="409" s="1" customFormat="1" spans="1:17">
+      <c r="A409" s="1">
         <v>408</v>
       </c>
-      <c r="B409">
-        <v>2</v>
-      </c>
-      <c r="C409" t="s">
+      <c r="B409" s="1">
+        <v>2</v>
+      </c>
+      <c r="C409" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="D409">
+      <c r="D409" s="1">
         <v>19</v>
       </c>
-      <c r="E409">
-        <v>22</v>
-      </c>
-      <c r="F409">
+      <c r="E409" s="1">
+        <v>22</v>
+      </c>
+      <c r="F409" s="1">
         <v>31</v>
       </c>
-      <c r="G409">
+      <c r="G409" s="1">
         <v>34</v>
       </c>
-      <c r="H409" t="s">
-        <v>22</v>
-      </c>
-      <c r="I409" t="s">
-        <v>22</v>
-      </c>
-      <c r="J409" t="s">
-        <v>21</v>
-      </c>
-      <c r="M409" t="s">
+      <c r="H409" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I409" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J409" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K409" s="7"/>
+      <c r="M409" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="O409" t="s">
+      <c r="O409" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="P409" t="s">
+      <c r="P409" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="Q409" t="s">
+      <c r="Q409" s="1" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="410" spans="1:17">
-      <c r="A410">
+    <row r="410" s="1" customFormat="1" spans="1:17">
+      <c r="A410" s="1">
         <v>409</v>
       </c>
-      <c r="B410">
-        <v>2</v>
-      </c>
-      <c r="C410" t="s">
+      <c r="B410" s="1">
+        <v>2</v>
+      </c>
+      <c r="C410" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="D410">
-        <v>22</v>
-      </c>
-      <c r="E410">
+      <c r="D410" s="1">
+        <v>22</v>
+      </c>
+      <c r="E410" s="1">
         <v>23</v>
       </c>
-      <c r="F410">
+      <c r="F410" s="1">
         <v>34</v>
       </c>
-      <c r="G410">
+      <c r="G410" s="1">
         <v>35</v>
       </c>
-      <c r="H410" t="s">
-        <v>21</v>
-      </c>
-      <c r="I410" t="s">
-        <v>22</v>
-      </c>
-      <c r="J410" t="s">
-        <v>22</v>
-      </c>
-      <c r="M410" t="s">
+      <c r="H410" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I410" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J410" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K410" s="7"/>
+      <c r="M410" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="O410" t="s">
+      <c r="O410" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="P410" t="s">
+      <c r="P410" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="Q410" t="s">
+      <c r="Q410" s="1" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="411" spans="1:17">
-      <c r="A411">
+    <row r="411" s="1" customFormat="1" spans="1:17">
+      <c r="A411" s="1">
         <v>410</v>
       </c>
-      <c r="B411">
-        <v>2</v>
-      </c>
-      <c r="C411" t="s">
+      <c r="B411" s="1">
+        <v>2</v>
+      </c>
+      <c r="C411" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="D411">
+      <c r="D411" s="1">
         <v>23</v>
       </c>
-      <c r="E411">
+      <c r="E411" s="1">
         <v>23</v>
       </c>
-      <c r="F411">
+      <c r="F411" s="1">
         <v>35</v>
       </c>
-      <c r="G411">
+      <c r="G411" s="1">
         <v>35</v>
       </c>
-      <c r="H411" t="s">
-        <v>21</v>
-      </c>
-      <c r="I411" t="s">
-        <v>22</v>
-      </c>
-      <c r="J411" t="s">
-        <v>22</v>
-      </c>
-      <c r="M411" t="s">
+      <c r="H411" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I411" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J411" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K411" s="7"/>
+      <c r="M411" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="O411" t="s">
+      <c r="O411" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="P411" t="s">
+      <c r="P411" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="Q411" t="s">
+      <c r="Q411" s="1" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="412" spans="1:17">
-      <c r="A412">
+    <row r="412" s="1" customFormat="1" spans="1:17">
+      <c r="A412" s="1">
         <v>411</v>
       </c>
-      <c r="B412">
-        <v>2</v>
-      </c>
-      <c r="C412" t="s">
+      <c r="B412" s="1">
+        <v>2</v>
+      </c>
+      <c r="C412" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D412">
+      <c r="D412" s="1">
         <v>23</v>
       </c>
-      <c r="E412">
+      <c r="E412" s="1">
         <v>24</v>
       </c>
-      <c r="F412">
+      <c r="F412" s="1">
         <v>35</v>
       </c>
-      <c r="G412">
+      <c r="G412" s="1">
         <v>36</v>
       </c>
-      <c r="H412" t="s">
-        <v>21</v>
-      </c>
-      <c r="I412" t="s">
-        <v>22</v>
-      </c>
-      <c r="J412" t="s">
-        <v>22</v>
-      </c>
-      <c r="M412" t="s">
+      <c r="H412" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I412" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J412" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K412" s="7"/>
+      <c r="M412" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="O412" t="s">
+      <c r="O412" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="P412" t="s">
+      <c r="P412" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="Q412" t="s">
+      <c r="Q412" s="1" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="413" spans="1:17">
-      <c r="A413">
+    <row r="413" s="1" customFormat="1" spans="1:17">
+      <c r="A413" s="1">
         <v>412</v>
       </c>
-      <c r="B413">
-        <v>2</v>
-      </c>
-      <c r="C413" t="s">
+      <c r="B413" s="1">
+        <v>2</v>
+      </c>
+      <c r="C413" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D413">
+      <c r="D413" s="1">
         <v>24</v>
       </c>
-      <c r="E413">
+      <c r="E413" s="1">
         <v>24</v>
       </c>
-      <c r="F413">
+      <c r="F413" s="1">
         <v>36</v>
       </c>
-      <c r="G413">
+      <c r="G413" s="1">
         <v>36</v>
       </c>
-      <c r="H413" t="s">
-        <v>21</v>
-      </c>
-      <c r="I413" t="s">
-        <v>22</v>
-      </c>
-      <c r="J413" t="s">
-        <v>22</v>
-      </c>
-      <c r="M413" t="s">
+      <c r="H413" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I413" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J413" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K413" s="7"/>
+      <c r="M413" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="O413" t="s">
+      <c r="O413" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="P413" t="s">
+      <c r="P413" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="Q413" t="s">
+      <c r="Q413" s="1" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="414" spans="1:17">
-      <c r="A414">
+    <row r="414" s="1" customFormat="1" spans="1:17">
+      <c r="A414" s="1">
         <v>413</v>
       </c>
-      <c r="B414">
-        <v>2</v>
-      </c>
-      <c r="C414" t="s">
+      <c r="B414" s="1">
+        <v>2</v>
+      </c>
+      <c r="C414" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D414">
+      <c r="D414" s="1">
         <v>25</v>
       </c>
-      <c r="E414">
+      <c r="E414" s="1">
         <v>25</v>
       </c>
-      <c r="F414">
+      <c r="F414" s="1">
         <v>37</v>
       </c>
-      <c r="G414">
+      <c r="G414" s="1">
         <v>37</v>
       </c>
-      <c r="H414" t="s">
-        <v>21</v>
-      </c>
-      <c r="I414" t="s">
-        <v>22</v>
-      </c>
-      <c r="J414" t="s">
-        <v>22</v>
-      </c>
-      <c r="M414" t="s">
+      <c r="H414" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I414" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J414" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K414" s="7"/>
+      <c r="M414" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="O414" t="s">
+      <c r="O414" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="P414" t="s">
+      <c r="P414" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="Q414" t="s">
+      <c r="Q414" s="1" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="415" spans="1:17">
-      <c r="A415">
+    <row r="415" s="1" customFormat="1" spans="1:17">
+      <c r="A415" s="1">
         <v>414</v>
       </c>
-      <c r="B415">
-        <v>2</v>
-      </c>
-      <c r="C415" t="s">
+      <c r="B415" s="1">
+        <v>2</v>
+      </c>
+      <c r="C415" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D415">
+      <c r="D415" s="1">
         <v>25</v>
       </c>
-      <c r="E415">
+      <c r="E415" s="1">
         <v>25</v>
       </c>
-      <c r="F415">
+      <c r="F415" s="1">
         <v>37</v>
       </c>
-      <c r="G415">
+      <c r="G415" s="1">
         <v>37</v>
       </c>
-      <c r="H415" t="s">
-        <v>21</v>
-      </c>
-      <c r="I415" t="s">
-        <v>22</v>
-      </c>
-      <c r="J415" t="s">
-        <v>22</v>
-      </c>
-      <c r="M415" t="s">
+      <c r="H415" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I415" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J415" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K415" s="7"/>
+      <c r="M415" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="O415" t="s">
+      <c r="O415" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="P415" t="s">
+      <c r="P415" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="Q415" t="s">
+      <c r="Q415" s="1" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="416" spans="1:17">
-      <c r="A416">
+    <row r="416" s="1" customFormat="1" spans="1:17">
+      <c r="A416" s="1">
         <v>415</v>
       </c>
-      <c r="B416">
-        <v>2</v>
-      </c>
-      <c r="C416" t="s">
+      <c r="B416" s="1">
+        <v>2</v>
+      </c>
+      <c r="C416" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D416">
+      <c r="D416" s="1">
         <v>25</v>
       </c>
-      <c r="E416">
+      <c r="E416" s="1">
         <v>25</v>
       </c>
-      <c r="F416">
+      <c r="F416" s="1">
         <v>37</v>
       </c>
-      <c r="G416">
+      <c r="G416" s="1">
         <v>37</v>
       </c>
-      <c r="H416" t="s">
-        <v>21</v>
-      </c>
-      <c r="I416" t="s">
-        <v>22</v>
-      </c>
-      <c r="J416" t="s">
-        <v>22</v>
-      </c>
-      <c r="M416" t="s">
+      <c r="H416" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I416" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J416" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K416" s="7"/>
+      <c r="M416" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="O416" t="s">
+      <c r="O416" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="P416" t="s">
+      <c r="P416" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="Q416" t="s">
+      <c r="Q416" s="1" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="417" spans="1:17">
-      <c r="A417">
+    <row r="417" s="1" customFormat="1" spans="1:17">
+      <c r="A417" s="1">
         <v>416</v>
       </c>
-      <c r="B417">
-        <v>2</v>
-      </c>
-      <c r="C417" t="s">
+      <c r="B417" s="1">
+        <v>2</v>
+      </c>
+      <c r="C417" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D417">
+      <c r="D417" s="1">
         <v>26</v>
       </c>
-      <c r="E417">
+      <c r="E417" s="1">
         <v>26</v>
       </c>
-      <c r="F417">
+      <c r="F417" s="1">
         <v>38</v>
       </c>
-      <c r="G417">
+      <c r="G417" s="1">
         <v>38</v>
       </c>
-      <c r="H417" t="s">
-        <v>21</v>
-      </c>
-      <c r="I417" t="s">
-        <v>22</v>
-      </c>
-      <c r="J417" t="s">
-        <v>22</v>
-      </c>
-      <c r="M417" t="s">
+      <c r="H417" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I417" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J417" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K417" s="7"/>
+      <c r="M417" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="O417" t="s">
+      <c r="O417" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="P417" t="s">
+      <c r="P417" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="Q417" t="s">
+      <c r="Q417" s="1" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="418" spans="1:17">
-      <c r="A418">
+    <row r="418" s="1" customFormat="1" spans="1:17">
+      <c r="A418" s="1">
         <v>417</v>
       </c>
-      <c r="B418">
-        <v>2</v>
-      </c>
-      <c r="C418" t="s">
+      <c r="B418" s="1">
+        <v>2</v>
+      </c>
+      <c r="C418" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="D418">
+      <c r="D418" s="1">
         <v>26</v>
       </c>
-      <c r="E418">
+      <c r="E418" s="1">
         <v>26</v>
       </c>
-      <c r="F418">
+      <c r="F418" s="1">
         <v>38</v>
       </c>
-      <c r="G418">
+      <c r="G418" s="1">
         <v>38</v>
       </c>
-      <c r="H418" t="s">
-        <v>22</v>
-      </c>
-      <c r="I418" t="s">
-        <v>22</v>
-      </c>
-      <c r="J418" t="s">
-        <v>22</v>
-      </c>
-      <c r="M418" t="s">
+      <c r="H418" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I418" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J418" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K418" s="7"/>
+      <c r="M418" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="O418" t="s">
+      <c r="O418" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="P418" t="s">
+      <c r="P418" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="Q418" t="s">
+      <c r="Q418" s="1" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="419" spans="1:17">
-      <c r="A419">
+    <row r="419" s="1" customFormat="1" spans="1:17">
+      <c r="A419" s="1">
         <v>418</v>
       </c>
-      <c r="B419">
-        <v>2</v>
-      </c>
-      <c r="C419" t="s">
+      <c r="B419" s="1">
+        <v>2</v>
+      </c>
+      <c r="C419" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="D419">
+      <c r="D419" s="1">
         <v>27</v>
       </c>
-      <c r="E419">
+      <c r="E419" s="1">
         <v>27</v>
       </c>
-      <c r="F419">
+      <c r="F419" s="1">
         <v>39</v>
       </c>
-      <c r="G419">
+      <c r="G419" s="1">
         <v>39</v>
       </c>
-      <c r="H419" t="s">
-        <v>22</v>
-      </c>
-      <c r="I419" t="s">
-        <v>22</v>
-      </c>
-      <c r="J419" t="s">
-        <v>22</v>
-      </c>
-      <c r="M419" t="s">
+      <c r="H419" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I419" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J419" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K419" s="7"/>
+      <c r="M419" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="O419" t="s">
+      <c r="O419" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="P419" t="s">
+      <c r="P419" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="Q419" t="s">
+      <c r="Q419" s="1" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="420" spans="1:17">
-      <c r="A420">
+    <row r="420" s="1" customFormat="1" spans="1:17">
+      <c r="A420" s="1">
         <v>419</v>
       </c>
-      <c r="B420">
-        <v>2</v>
-      </c>
-      <c r="C420" t="s">
+      <c r="B420" s="1">
+        <v>2</v>
+      </c>
+      <c r="C420" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="D420">
+      <c r="D420" s="1">
         <v>27</v>
       </c>
-      <c r="E420">
+      <c r="E420" s="1">
         <v>27</v>
       </c>
-      <c r="F420">
+      <c r="F420" s="1">
         <v>39</v>
       </c>
-      <c r="G420">
+      <c r="G420" s="1">
         <v>39</v>
       </c>
-      <c r="H420" t="s">
-        <v>22</v>
-      </c>
-      <c r="I420" t="s">
-        <v>22</v>
-      </c>
-      <c r="J420" t="s">
-        <v>22</v>
-      </c>
-      <c r="M420" t="s">
+      <c r="H420" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I420" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J420" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K420" s="7"/>
+      <c r="M420" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="O420" t="s">
+      <c r="O420" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="P420" t="s">
+      <c r="P420" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="Q420" t="s">
+      <c r="Q420" s="1" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="421" spans="1:17">
-      <c r="A421">
+    <row r="421" s="1" customFormat="1" spans="1:17">
+      <c r="A421" s="1">
         <v>420</v>
       </c>
-      <c r="B421">
-        <v>2</v>
-      </c>
-      <c r="C421" t="s">
+      <c r="B421" s="1">
+        <v>2</v>
+      </c>
+      <c r="C421" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="D421">
+      <c r="D421" s="1">
         <v>28</v>
       </c>
-      <c r="E421">
+      <c r="E421" s="1">
         <v>28</v>
       </c>
-      <c r="F421">
+      <c r="F421" s="1">
         <v>40</v>
       </c>
-      <c r="G421">
+      <c r="G421" s="1">
         <v>40</v>
       </c>
-      <c r="H421" t="s">
-        <v>21</v>
-      </c>
-      <c r="I421" t="s">
-        <v>22</v>
-      </c>
-      <c r="J421" t="s">
-        <v>22</v>
-      </c>
-      <c r="M421" t="s">
+      <c r="H421" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I421" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J421" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K421" s="7"/>
+      <c r="M421" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="O421" t="s">
+      <c r="O421" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="P421" t="s">
+      <c r="P421" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="Q421" t="s">
+      <c r="Q421" s="1" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="422" spans="1:17">
-      <c r="A422">
+    <row r="422" s="1" customFormat="1" spans="1:17">
+      <c r="A422" s="1">
         <v>421</v>
       </c>
-      <c r="B422">
-        <v>2</v>
-      </c>
-      <c r="C422" t="s">
+      <c r="B422" s="1">
+        <v>2</v>
+      </c>
+      <c r="C422" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="D422">
+      <c r="D422" s="1">
         <v>28</v>
       </c>
-      <c r="E422">
+      <c r="E422" s="1">
         <v>29</v>
       </c>
-      <c r="F422">
+      <c r="F422" s="1">
         <v>40</v>
       </c>
-      <c r="G422">
+      <c r="G422" s="1">
         <v>41</v>
       </c>
-      <c r="H422" t="s">
-        <v>21</v>
-      </c>
-      <c r="I422" t="s">
-        <v>22</v>
-      </c>
-      <c r="J422" t="s">
-        <v>22</v>
-      </c>
-      <c r="M422" t="s">
+      <c r="H422" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I422" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J422" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K422" s="7"/>
+      <c r="M422" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="O422" t="s">
+      <c r="O422" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="P422" t="s">
+      <c r="P422" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="Q422" t="s">
+      <c r="Q422" s="1" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="423" spans="1:17">
-      <c r="A423">
+    <row r="423" s="1" customFormat="1" spans="1:17">
+      <c r="A423" s="1">
         <v>422</v>
       </c>
-      <c r="B423">
-        <v>2</v>
-      </c>
-      <c r="C423" t="s">
+      <c r="B423" s="1">
+        <v>2</v>
+      </c>
+      <c r="C423" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="D423">
+      <c r="D423" s="1">
         <v>29</v>
       </c>
-      <c r="E423">
+      <c r="E423" s="1">
         <v>29</v>
       </c>
-      <c r="F423">
+      <c r="F423" s="1">
         <v>41</v>
       </c>
-      <c r="G423">
+      <c r="G423" s="1">
         <v>41</v>
       </c>
-      <c r="H423" t="s">
-        <v>21</v>
-      </c>
-      <c r="I423" t="s">
-        <v>22</v>
-      </c>
-      <c r="J423" t="s">
-        <v>22</v>
-      </c>
-      <c r="M423" t="s">
+      <c r="H423" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I423" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J423" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K423" s="7"/>
+      <c r="M423" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="O423" t="s">
+      <c r="O423" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="P423" t="s">
+      <c r="P423" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="Q423" t="s">
+      <c r="Q423" s="1" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="424" spans="1:17">
-      <c r="A424">
+    <row r="424" s="1" customFormat="1" spans="1:17">
+      <c r="A424" s="1">
         <v>423</v>
       </c>
-      <c r="B424">
-        <v>2</v>
-      </c>
-      <c r="C424" t="s">
+      <c r="B424" s="1">
+        <v>2</v>
+      </c>
+      <c r="C424" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="D424">
+      <c r="D424" s="1">
         <v>29</v>
       </c>
-      <c r="E424">
+      <c r="E424" s="1">
         <v>31</v>
       </c>
-      <c r="F424">
+      <c r="F424" s="1">
         <v>41</v>
       </c>
-      <c r="G424">
+      <c r="G424" s="1">
         <v>43</v>
       </c>
-      <c r="H424" t="s">
-        <v>21</v>
-      </c>
-      <c r="I424" t="s">
-        <v>22</v>
-      </c>
-      <c r="J424" t="s">
-        <v>22</v>
-      </c>
-      <c r="M424" t="s">
+      <c r="H424" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I424" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J424" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K424" s="7"/>
+      <c r="M424" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="O424" t="s">
+      <c r="O424" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="P424" t="s">
+      <c r="P424" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="Q424" t="s">
+      <c r="Q424" s="1" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="425" spans="1:17">
-      <c r="A425">
+    <row r="425" s="1" customFormat="1" spans="1:17">
+      <c r="A425" s="1">
         <v>424</v>
       </c>
-      <c r="B425">
-        <v>2</v>
-      </c>
-      <c r="C425" t="s">
+      <c r="B425" s="1">
+        <v>2</v>
+      </c>
+      <c r="C425" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="D425">
+      <c r="D425" s="1">
         <v>31</v>
       </c>
-      <c r="E425">
+      <c r="E425" s="1">
         <v>32</v>
       </c>
-      <c r="F425">
+      <c r="F425" s="1">
         <v>43</v>
       </c>
-      <c r="G425">
+      <c r="G425" s="1">
         <v>44</v>
       </c>
-      <c r="H425" t="s">
-        <v>21</v>
-      </c>
-      <c r="I425" t="s">
-        <v>22</v>
-      </c>
-      <c r="J425" t="s">
-        <v>22</v>
-      </c>
-      <c r="M425" t="s">
+      <c r="H425" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I425" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J425" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K425" s="7"/>
+      <c r="M425" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="O425" t="s">
+      <c r="O425" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="P425" t="s">
+      <c r="P425" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="Q425" t="s">
+      <c r="Q425" s="1" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="426" spans="1:17">
-      <c r="A426">
+    <row r="426" s="1" customFormat="1" spans="1:17">
+      <c r="A426" s="1">
         <v>425</v>
       </c>
-      <c r="B426">
-        <v>2</v>
-      </c>
-      <c r="C426" t="s">
+      <c r="B426" s="1">
+        <v>2</v>
+      </c>
+      <c r="C426" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="D426">
+      <c r="D426" s="1">
         <v>32</v>
       </c>
-      <c r="E426">
+      <c r="E426" s="1">
         <v>33</v>
       </c>
-      <c r="F426">
+      <c r="F426" s="1">
         <v>44</v>
       </c>
-      <c r="G426">
+      <c r="G426" s="1">
         <v>45</v>
       </c>
-      <c r="H426" t="s">
-        <v>22</v>
-      </c>
-      <c r="I426" t="s">
-        <v>22</v>
-      </c>
-      <c r="J426" t="s">
-        <v>22</v>
-      </c>
-      <c r="M426" t="s">
+      <c r="H426" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I426" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J426" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K426" s="7"/>
+      <c r="M426" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="O426" t="s">
+      <c r="O426" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="P426" t="s">
+      <c r="P426" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="Q426" t="s">
+      <c r="Q426" s="1" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="427" spans="1:17">
-      <c r="A427">
+    <row r="427" s="1" customFormat="1" spans="1:17">
+      <c r="A427" s="1">
         <v>426</v>
       </c>
-      <c r="B427">
-        <v>2</v>
-      </c>
-      <c r="C427" t="s">
+      <c r="B427" s="1">
+        <v>2</v>
+      </c>
+      <c r="C427" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="D427">
+      <c r="D427" s="1">
         <v>33</v>
       </c>
-      <c r="E427">
+      <c r="E427" s="1">
         <v>34</v>
       </c>
-      <c r="F427">
+      <c r="F427" s="1">
         <v>45</v>
       </c>
-      <c r="G427">
+      <c r="G427" s="1">
         <v>46</v>
       </c>
-      <c r="H427" t="s">
-        <v>22</v>
-      </c>
-      <c r="I427" t="s">
-        <v>22</v>
-      </c>
-      <c r="J427" t="s">
-        <v>22</v>
-      </c>
-      <c r="M427" t="s">
+      <c r="H427" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I427" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J427" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K427" s="7"/>
+      <c r="M427" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="O427" t="s">
+      <c r="O427" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="P427" t="s">
+      <c r="P427" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="Q427" t="s">
+      <c r="Q427" s="1" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="428" spans="1:17">
-      <c r="A428">
+    <row r="428" s="1" customFormat="1" spans="1:17">
+      <c r="A428" s="1">
         <v>427</v>
       </c>
-      <c r="B428">
-        <v>2</v>
-      </c>
-      <c r="C428" t="s">
+      <c r="B428" s="1">
+        <v>2</v>
+      </c>
+      <c r="C428" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="D428">
+      <c r="D428" s="1">
         <v>34</v>
       </c>
-      <c r="E428">
+      <c r="E428" s="1">
         <v>34</v>
       </c>
-      <c r="F428">
+      <c r="F428" s="1">
         <v>46</v>
       </c>
-      <c r="G428">
+      <c r="G428" s="1">
         <v>46</v>
       </c>
-      <c r="H428" t="s">
-        <v>21</v>
-      </c>
-      <c r="I428" t="s">
-        <v>22</v>
-      </c>
-      <c r="J428" t="s">
-        <v>22</v>
-      </c>
-      <c r="M428" t="s">
+      <c r="H428" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I428" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J428" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K428" s="7"/>
+      <c r="M428" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="O428" t="s">
+      <c r="O428" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="P428" t="s">
+      <c r="P428" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="Q428" t="s">
+      <c r="Q428" s="1" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="429" spans="1:17">
-      <c r="A429">
+    <row r="429" s="1" customFormat="1" spans="1:17">
+      <c r="A429" s="1">
         <v>428</v>
       </c>
-      <c r="B429">
-        <v>2</v>
-      </c>
-      <c r="C429" t="s">
+      <c r="B429" s="1">
+        <v>2</v>
+      </c>
+      <c r="C429" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="D429">
+      <c r="D429" s="1">
         <v>34</v>
       </c>
-      <c r="E429">
+      <c r="E429" s="1">
         <v>34</v>
       </c>
-      <c r="F429">
+      <c r="F429" s="1">
         <v>46</v>
       </c>
-      <c r="G429">
+      <c r="G429" s="1">
         <v>46</v>
       </c>
-      <c r="H429" t="s">
-        <v>21</v>
-      </c>
-      <c r="I429" t="s">
-        <v>22</v>
-      </c>
-      <c r="J429" t="s">
-        <v>21</v>
-      </c>
-      <c r="M429" t="s">
+      <c r="H429" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I429" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J429" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K429" s="7"/>
+      <c r="M429" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="O429" t="s">
+      <c r="O429" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="P429" t="s">
+      <c r="P429" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="Q429" t="s">
+      <c r="Q429" s="1" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="430" spans="1:17">
-      <c r="A430">
+    <row r="430" s="1" customFormat="1" spans="1:17">
+      <c r="A430" s="1">
         <v>429</v>
       </c>
-      <c r="B430">
-        <v>2</v>
-      </c>
-      <c r="C430" t="s">
+      <c r="B430" s="1">
+        <v>2</v>
+      </c>
+      <c r="C430" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="D430">
+      <c r="D430" s="1">
         <v>35</v>
       </c>
-      <c r="E430">
+      <c r="E430" s="1">
         <v>44</v>
       </c>
-      <c r="F430">
+      <c r="F430" s="1">
         <v>47</v>
       </c>
-      <c r="G430">
+      <c r="G430" s="1">
         <v>56</v>
       </c>
-      <c r="H430" t="s">
-        <v>22</v>
-      </c>
-      <c r="I430" t="s">
-        <v>22</v>
-      </c>
-      <c r="J430" t="s">
-        <v>22</v>
-      </c>
-      <c r="M430" t="s">
+      <c r="H430" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I430" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J430" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K430" s="7"/>
+      <c r="M430" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="O430" t="s">
+      <c r="O430" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="P430" t="s">
+      <c r="P430" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="Q430" t="s">
+      <c r="Q430" s="1" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="431" spans="1:17">
-      <c r="A431">
+    <row r="431" s="1" customFormat="1" spans="1:17">
+      <c r="A431" s="1">
         <v>430</v>
       </c>
-      <c r="B431">
-        <v>2</v>
-      </c>
-      <c r="C431" t="s">
+      <c r="B431" s="1">
+        <v>2</v>
+      </c>
+      <c r="C431" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="D431">
+      <c r="D431" s="1">
         <v>45</v>
       </c>
-      <c r="E431">
+      <c r="E431" s="1">
         <v>45</v>
       </c>
-      <c r="F431">
+      <c r="F431" s="1">
         <v>57</v>
       </c>
-      <c r="G431">
+      <c r="G431" s="1">
         <v>57</v>
       </c>
-      <c r="H431" t="s">
-        <v>21</v>
-      </c>
-      <c r="I431" t="s">
-        <v>22</v>
-      </c>
-      <c r="J431" t="s">
-        <v>22</v>
-      </c>
-      <c r="M431" t="s">
+      <c r="H431" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I431" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J431" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K431" s="7"/>
+      <c r="M431" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="O431" t="s">
+      <c r="O431" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="P431" t="s">
+      <c r="P431" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="Q431" t="s">
+      <c r="Q431" s="1" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="432" spans="1:17">
-      <c r="A432">
+    <row r="432" s="1" customFormat="1" spans="1:17">
+      <c r="A432" s="1">
         <v>431</v>
       </c>
-      <c r="B432">
-        <v>2</v>
-      </c>
-      <c r="C432" t="s">
+      <c r="B432" s="1">
+        <v>2</v>
+      </c>
+      <c r="C432" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="D432">
+      <c r="D432" s="1">
         <v>45</v>
       </c>
-      <c r="E432">
+      <c r="E432" s="1">
         <v>45</v>
       </c>
-      <c r="F432">
+      <c r="F432" s="1">
         <v>57</v>
       </c>
-      <c r="G432">
+      <c r="G432" s="1">
         <v>57</v>
       </c>
-      <c r="H432" t="s">
-        <v>22</v>
-      </c>
-      <c r="I432" t="s">
-        <v>22</v>
-      </c>
-      <c r="J432" t="s">
-        <v>22</v>
-      </c>
-      <c r="M432" t="s">
+      <c r="H432" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I432" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J432" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K432" s="7"/>
+      <c r="M432" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="O432" t="s">
+      <c r="O432" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="P432" t="s">
+      <c r="P432" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="Q432" t="s">
+      <c r="Q432" s="1" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="433" spans="1:17">
-      <c r="A433">
+    <row r="433" s="1" customFormat="1" spans="1:17">
+      <c r="A433" s="1">
         <v>432</v>
       </c>
-      <c r="B433">
-        <v>2</v>
-      </c>
-      <c r="C433" t="s">
+      <c r="B433" s="1">
+        <v>2</v>
+      </c>
+      <c r="C433" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="D433">
+      <c r="D433" s="1">
         <v>46</v>
       </c>
-      <c r="E433">
+      <c r="E433" s="1">
         <v>47</v>
       </c>
-      <c r="F433">
+      <c r="F433" s="1">
         <v>58</v>
       </c>
-      <c r="G433">
+      <c r="G433" s="1">
         <v>59</v>
       </c>
-      <c r="H433" t="s">
-        <v>21</v>
-      </c>
-      <c r="I433" t="s">
-        <v>22</v>
-      </c>
-      <c r="J433" t="s">
-        <v>22</v>
-      </c>
-      <c r="M433" t="s">
+      <c r="H433" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I433" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J433" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K433" s="7"/>
+      <c r="M433" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="O433" t="s">
+      <c r="O433" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="P433" t="s">
+      <c r="P433" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="Q433" t="s">
+      <c r="Q433" s="1" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="434" spans="1:17">
-      <c r="A434">
+    <row r="434" s="1" customFormat="1" spans="1:17">
+      <c r="A434" s="1">
         <v>433</v>
       </c>
-      <c r="B434">
-        <v>2</v>
-      </c>
-      <c r="C434" t="s">
+      <c r="B434" s="1">
+        <v>2</v>
+      </c>
+      <c r="C434" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="D434">
+      <c r="D434" s="1">
         <v>47</v>
       </c>
-      <c r="E434">
+      <c r="E434" s="1">
         <v>48</v>
       </c>
-      <c r="F434">
+      <c r="F434" s="1">
         <v>59</v>
       </c>
-      <c r="G434">
+      <c r="G434" s="1">
         <v>60</v>
       </c>
-      <c r="H434" t="s">
-        <v>21</v>
-      </c>
-      <c r="I434" t="s">
-        <v>22</v>
-      </c>
-      <c r="J434" t="s">
-        <v>22</v>
-      </c>
-      <c r="M434" t="s">
+      <c r="H434" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I434" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J434" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K434" s="7"/>
+      <c r="M434" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="O434" t="s">
+      <c r="O434" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="P434" t="s">
+      <c r="P434" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="Q434" t="s">
+      <c r="Q434" s="1" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="435" spans="1:17">
-      <c r="A435">
+    <row r="435" s="1" customFormat="1" spans="1:17">
+      <c r="A435" s="1">
         <v>434</v>
       </c>
-      <c r="B435">
-        <v>2</v>
-      </c>
-      <c r="C435" t="s">
+      <c r="B435" s="1">
+        <v>2</v>
+      </c>
+      <c r="C435" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="D435">
+      <c r="D435" s="1">
         <v>48</v>
       </c>
-      <c r="E435">
+      <c r="E435" s="1">
         <v>48</v>
       </c>
-      <c r="F435">
+      <c r="F435" s="1">
         <v>60</v>
       </c>
-      <c r="G435">
+      <c r="G435" s="1">
         <v>60</v>
       </c>
-      <c r="H435" t="s">
-        <v>21</v>
-      </c>
-      <c r="I435" t="s">
-        <v>22</v>
-      </c>
-      <c r="J435" t="s">
-        <v>22</v>
-      </c>
-      <c r="M435" t="s">
+      <c r="H435" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I435" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J435" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K435" s="7"/>
+      <c r="M435" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="O435" t="s">
+      <c r="O435" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="P435" t="s">
+      <c r="P435" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="Q435" t="s">
+      <c r="Q435" s="1" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="436" spans="1:17">
-      <c r="A436">
+    <row r="436" s="1" customFormat="1" spans="1:17">
+      <c r="A436" s="1">
         <v>435</v>
       </c>
-      <c r="B436">
-        <v>2</v>
-      </c>
-      <c r="C436" t="s">
+      <c r="B436" s="1">
+        <v>2</v>
+      </c>
+      <c r="C436" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="D436">
+      <c r="D436" s="1">
         <v>49</v>
       </c>
-      <c r="E436">
+      <c r="E436" s="1">
         <v>49</v>
       </c>
-      <c r="F436">
+      <c r="F436" s="1">
         <v>61</v>
       </c>
-      <c r="G436">
+      <c r="G436" s="1">
         <v>61</v>
       </c>
-      <c r="H436" t="s">
-        <v>22</v>
-      </c>
-      <c r="I436" t="s">
-        <v>22</v>
-      </c>
-      <c r="J436" t="s">
-        <v>22</v>
-      </c>
-      <c r="M436" t="s">
+      <c r="H436" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I436" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J436" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K436" s="7"/>
+      <c r="M436" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="O436" t="s">
+      <c r="O436" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="P436" t="s">
+      <c r="P436" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="Q436" t="s">
+      <c r="Q436" s="1" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="437" spans="1:17">
-      <c r="A437">
+    <row r="437" s="1" customFormat="1" spans="1:17">
+      <c r="A437" s="1">
         <v>436</v>
       </c>
-      <c r="B437">
-        <v>2</v>
-      </c>
-      <c r="C437" t="s">
+      <c r="B437" s="1">
+        <v>2</v>
+      </c>
+      <c r="C437" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="D437">
+      <c r="D437" s="1">
         <v>50</v>
       </c>
-      <c r="E437">
+      <c r="E437" s="1">
         <v>50</v>
       </c>
-      <c r="F437">
+      <c r="F437" s="1">
         <v>62</v>
       </c>
-      <c r="G437">
+      <c r="G437" s="1">
         <v>62</v>
       </c>
-      <c r="H437" t="s">
-        <v>21</v>
-      </c>
-      <c r="I437" t="s">
-        <v>21</v>
-      </c>
-      <c r="J437" t="s">
-        <v>22</v>
-      </c>
-      <c r="K437" s="6" t="s">
+      <c r="H437" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I437" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J437" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K437" s="7" t="s">
         <v>1067</v>
       </c>
-      <c r="M437" t="s">
+      <c r="M437" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="O437" t="s">
+      <c r="O437" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="P437" t="s">
+      <c r="P437" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="Q437" t="s">
+      <c r="Q437" s="1" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="438" spans="1:17">
-      <c r="A438">
+    <row r="438" s="1" customFormat="1" spans="1:17">
+      <c r="A438" s="1">
         <v>437</v>
       </c>
-      <c r="B438">
-        <v>2</v>
-      </c>
-      <c r="C438" t="s">
+      <c r="B438" s="1">
+        <v>2</v>
+      </c>
+      <c r="C438" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="D438">
+      <c r="D438" s="1">
         <v>50</v>
       </c>
-      <c r="E438">
+      <c r="E438" s="1">
         <v>51</v>
       </c>
-      <c r="F438">
+      <c r="F438" s="1">
         <v>62</v>
       </c>
-      <c r="G438">
+      <c r="G438" s="1">
         <v>63</v>
       </c>
-      <c r="H438" t="s">
-        <v>21</v>
-      </c>
-      <c r="I438" t="s">
-        <v>21</v>
-      </c>
-      <c r="J438" t="s">
-        <v>22</v>
-      </c>
-      <c r="K438" s="6" t="s">
+      <c r="H438" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I438" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J438" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K438" s="7" t="s">
         <v>1067</v>
       </c>
-      <c r="M438" t="s">
+      <c r="M438" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="O438" t="s">
+      <c r="O438" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="P438" t="s">
+      <c r="P438" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="Q438" t="s">
+      <c r="Q438" s="1" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="439" spans="1:17">
-      <c r="A439">
+    <row r="439" s="1" customFormat="1" spans="1:17">
+      <c r="A439" s="1">
         <v>438</v>
       </c>
-      <c r="B439">
-        <v>2</v>
-      </c>
-      <c r="C439" t="s">
+      <c r="B439" s="1">
+        <v>2</v>
+      </c>
+      <c r="C439" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="D439">
+      <c r="D439" s="1">
         <v>51</v>
       </c>
-      <c r="E439">
+      <c r="E439" s="1">
         <v>51</v>
       </c>
-      <c r="F439">
+      <c r="F439" s="1">
         <v>63</v>
       </c>
-      <c r="G439">
+      <c r="G439" s="1">
         <v>63</v>
       </c>
-      <c r="H439" t="s">
-        <v>22</v>
-      </c>
-      <c r="I439" t="s">
-        <v>22</v>
-      </c>
-      <c r="J439" t="s">
-        <v>22</v>
-      </c>
-      <c r="M439" t="s">
+      <c r="H439" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I439" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J439" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K439" s="7"/>
+      <c r="M439" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="O439" t="s">
+      <c r="O439" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="P439" t="s">
+      <c r="P439" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="Q439" t="s">
+      <c r="Q439" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="440" spans="1:17">
-      <c r="A440">
+    <row r="440" s="1" customFormat="1" spans="1:17">
+      <c r="A440" s="1">
         <v>439</v>
       </c>
-      <c r="B440">
-        <v>2</v>
-      </c>
-      <c r="C440" t="s">
+      <c r="B440" s="1">
+        <v>2</v>
+      </c>
+      <c r="C440" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="D440">
+      <c r="D440" s="1">
         <v>51</v>
       </c>
-      <c r="E440">
+      <c r="E440" s="1">
         <v>52</v>
       </c>
-      <c r="F440">
+      <c r="F440" s="1">
         <v>63</v>
       </c>
-      <c r="G440">
+      <c r="G440" s="1">
         <v>64</v>
       </c>
-      <c r="H440" t="s">
-        <v>21</v>
-      </c>
-      <c r="I440" t="s">
-        <v>22</v>
-      </c>
-      <c r="J440" t="s">
-        <v>22</v>
-      </c>
-      <c r="M440" t="s">
+      <c r="H440" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I440" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J440" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K440" s="7"/>
+      <c r="M440" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="O440" t="s">
+      <c r="O440" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="P440" t="s">
+      <c r="P440" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="Q440" t="s">
+      <c r="Q440" s="1" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="441" spans="1:17">
-      <c r="A441">
+    <row r="441" s="1" customFormat="1" spans="1:17">
+      <c r="A441" s="1">
         <v>440</v>
       </c>
-      <c r="B441">
-        <v>2</v>
-      </c>
-      <c r="C441" t="s">
+      <c r="B441" s="1">
+        <v>2</v>
+      </c>
+      <c r="C441" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="D441">
+      <c r="D441" s="1">
         <v>52</v>
       </c>
-      <c r="E441">
+      <c r="E441" s="1">
         <v>54</v>
       </c>
-      <c r="F441">
+      <c r="F441" s="1">
         <v>64</v>
       </c>
-      <c r="G441">
+      <c r="G441" s="1">
         <v>66</v>
       </c>
-      <c r="H441" t="s">
-        <v>21</v>
-      </c>
-      <c r="I441" t="s">
-        <v>22</v>
-      </c>
-      <c r="J441" t="s">
-        <v>22</v>
-      </c>
-      <c r="M441" t="s">
+      <c r="H441" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I441" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J441" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K441" s="7"/>
+      <c r="M441" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="O441" t="s">
+      <c r="O441" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="P441" t="s">
+      <c r="P441" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="Q441" t="s">
+      <c r="Q441" s="1" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="442" spans="1:17">
-      <c r="A442">
+    <row r="442" s="1" customFormat="1" spans="1:17">
+      <c r="A442" s="1">
         <v>441</v>
       </c>
-      <c r="B442">
-        <v>2</v>
-      </c>
-      <c r="C442" t="s">
+      <c r="B442" s="1">
+        <v>2</v>
+      </c>
+      <c r="C442" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="D442">
+      <c r="D442" s="1">
         <v>54</v>
       </c>
-      <c r="E442">
+      <c r="E442" s="1">
         <v>55</v>
       </c>
-      <c r="F442">
+      <c r="F442" s="1">
         <v>66</v>
       </c>
-      <c r="G442">
+      <c r="G442" s="1">
         <v>67</v>
       </c>
-      <c r="H442" t="s">
-        <v>21</v>
-      </c>
-      <c r="I442" t="s">
-        <v>22</v>
-      </c>
-      <c r="J442" t="s">
-        <v>22</v>
-      </c>
-      <c r="M442" t="s">
+      <c r="H442" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I442" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J442" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K442" s="7"/>
+      <c r="M442" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="O442" t="s">
+      <c r="O442" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="P442" t="s">
+      <c r="P442" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="Q442" t="s">
+      <c r="Q442" s="1" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="443" spans="1:17">
-      <c r="A443">
+    <row r="443" s="1" customFormat="1" spans="1:17">
+      <c r="A443" s="1">
         <v>442</v>
       </c>
-      <c r="B443">
-        <v>2</v>
-      </c>
-      <c r="C443" t="s">
+      <c r="B443" s="1">
+        <v>2</v>
+      </c>
+      <c r="C443" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="D443">
+      <c r="D443" s="1">
         <v>55</v>
       </c>
-      <c r="E443">
+      <c r="E443" s="1">
         <v>57</v>
       </c>
-      <c r="F443">
+      <c r="F443" s="1">
         <v>67</v>
       </c>
-      <c r="G443">
+      <c r="G443" s="1">
         <v>69</v>
       </c>
-      <c r="H443" t="s">
-        <v>21</v>
-      </c>
-      <c r="I443" t="s">
-        <v>22</v>
-      </c>
-      <c r="J443" t="s">
-        <v>22</v>
-      </c>
-      <c r="M443" t="s">
+      <c r="H443" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I443" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J443" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K443" s="7"/>
+      <c r="M443" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="O443" t="s">
+      <c r="O443" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="P443" t="s">
+      <c r="P443" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="Q443" t="s">
+      <c r="Q443" s="1" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="444" spans="1:17">
-      <c r="A444">
+    <row r="444" s="1" customFormat="1" spans="1:17">
+      <c r="A444" s="1">
         <v>443</v>
       </c>
-      <c r="B444">
-        <v>2</v>
-      </c>
-      <c r="C444" t="s">
+      <c r="B444" s="1">
+        <v>2</v>
+      </c>
+      <c r="C444" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="D444">
+      <c r="D444" s="1">
         <v>57</v>
       </c>
-      <c r="E444">
+      <c r="E444" s="1">
         <v>59</v>
       </c>
-      <c r="F444">
+      <c r="F444" s="1">
         <v>69</v>
       </c>
-      <c r="G444">
+      <c r="G444" s="1">
         <v>71</v>
       </c>
-      <c r="H444" t="s">
-        <v>21</v>
-      </c>
-      <c r="I444" t="s">
-        <v>22</v>
-      </c>
-      <c r="J444" t="s">
-        <v>22</v>
-      </c>
-      <c r="M444" t="s">
+      <c r="H444" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I444" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J444" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K444" s="7"/>
+      <c r="M444" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="O444" t="s">
+      <c r="O444" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="P444" t="s">
+      <c r="P444" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="Q444" t="s">
+      <c r="Q444" s="1" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="445" spans="1:17">
-      <c r="A445">
+    <row r="445" s="1" customFormat="1" spans="1:17">
+      <c r="A445" s="1">
         <v>444</v>
       </c>
-      <c r="B445">
-        <v>2</v>
-      </c>
-      <c r="C445" t="s">
+      <c r="B445" s="1">
+        <v>2</v>
+      </c>
+      <c r="C445" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="D445">
+      <c r="D445" s="1">
         <v>59</v>
       </c>
-      <c r="E445">
+      <c r="E445" s="1">
         <v>61</v>
       </c>
-      <c r="F445">
+      <c r="F445" s="1">
         <v>71</v>
       </c>
-      <c r="G445">
+      <c r="G445" s="1">
         <v>73</v>
       </c>
-      <c r="H445" t="s">
-        <v>21</v>
-      </c>
-      <c r="I445" t="s">
-        <v>22</v>
-      </c>
-      <c r="J445" t="s">
-        <v>22</v>
-      </c>
-      <c r="M445" t="s">
+      <c r="H445" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I445" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J445" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K445" s="7"/>
+      <c r="M445" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="O445" t="s">
+      <c r="O445" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="P445" t="s">
+      <c r="P445" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="Q445" t="s">
+      <c r="Q445" s="1" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="446" spans="1:17">
-      <c r="A446">
+    <row r="446" s="1" customFormat="1" spans="1:17">
+      <c r="A446" s="1">
         <v>445</v>
       </c>
-      <c r="B446">
-        <v>2</v>
-      </c>
-      <c r="C446" t="s">
+      <c r="B446" s="1">
+        <v>2</v>
+      </c>
+      <c r="C446" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="D446">
+      <c r="D446" s="1">
         <v>61</v>
       </c>
-      <c r="E446">
+      <c r="E446" s="1">
         <v>61</v>
       </c>
-      <c r="F446">
+      <c r="F446" s="1">
         <v>73</v>
       </c>
-      <c r="G446">
+      <c r="G446" s="1">
         <v>73</v>
       </c>
-      <c r="H446" t="s">
-        <v>21</v>
-      </c>
-      <c r="I446" t="s">
-        <v>22</v>
-      </c>
-      <c r="J446" t="s">
-        <v>22</v>
-      </c>
-      <c r="M446" t="s">
+      <c r="H446" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I446" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J446" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K446" s="7"/>
+      <c r="M446" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="O446" t="s">
+      <c r="O446" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="P446" t="s">
+      <c r="P446" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="Q446" t="s">
+      <c r="Q446" s="1" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="447" spans="1:17">
-      <c r="A447">
+    <row r="447" s="1" customFormat="1" spans="1:17">
+      <c r="A447" s="1">
         <v>446</v>
       </c>
-      <c r="B447">
-        <v>2</v>
-      </c>
-      <c r="C447" t="s">
+      <c r="B447" s="1">
+        <v>2</v>
+      </c>
+      <c r="C447" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D447">
+      <c r="D447" s="1">
         <v>62</v>
       </c>
-      <c r="E447">
+      <c r="E447" s="1">
         <v>64</v>
       </c>
-      <c r="F447">
+      <c r="F447" s="1">
         <v>73</v>
       </c>
-      <c r="G447">
+      <c r="G447" s="1">
         <v>76</v>
       </c>
-      <c r="H447" t="s">
-        <v>22</v>
-      </c>
-      <c r="I447" t="s">
-        <v>22</v>
-      </c>
-      <c r="J447" t="s">
-        <v>22</v>
-      </c>
-      <c r="M447" t="s">
+      <c r="H447" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I447" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J447" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K447" s="7"/>
+      <c r="M447" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="O447" t="s">
+      <c r="O447" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="P447" t="s">
+      <c r="P447" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="Q447" t="s">
+      <c r="Q447" s="1" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="448" spans="1:17">
-      <c r="A448">
+    <row r="448" s="1" customFormat="1" spans="1:17">
+      <c r="A448" s="1">
         <v>447</v>
       </c>
-      <c r="B448">
-        <v>2</v>
-      </c>
-      <c r="C448" t="s">
+      <c r="B448" s="1">
+        <v>2</v>
+      </c>
+      <c r="C448" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D448">
+      <c r="D448" s="1">
         <v>64</v>
       </c>
-      <c r="E448">
+      <c r="E448" s="1">
         <v>64</v>
       </c>
-      <c r="F448">
+      <c r="F448" s="1">
         <v>76</v>
       </c>
-      <c r="G448">
+      <c r="G448" s="1">
         <v>76</v>
       </c>
-      <c r="H448" t="s">
-        <v>22</v>
-      </c>
-      <c r="I448" t="s">
-        <v>22</v>
-      </c>
-      <c r="J448" t="s">
-        <v>22</v>
-      </c>
-      <c r="M448" t="s">
+      <c r="H448" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I448" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J448" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K448" s="7"/>
+      <c r="M448" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="O448" t="s">
+      <c r="O448" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="P448" t="s">
+      <c r="P448" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="Q448" t="s">
+      <c r="Q448" s="1" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="449" spans="1:17">
-      <c r="A449">
+    <row r="449" s="1" customFormat="1" spans="1:17">
+      <c r="A449" s="1">
         <v>448</v>
       </c>
-      <c r="B449">
-        <v>2</v>
-      </c>
-      <c r="C449" t="s">
+      <c r="B449" s="1">
+        <v>2</v>
+      </c>
+      <c r="C449" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D449">
+      <c r="D449" s="1">
         <v>64</v>
       </c>
-      <c r="E449">
+      <c r="E449" s="1">
         <v>64</v>
       </c>
-      <c r="F449">
+      <c r="F449" s="1">
         <v>76</v>
       </c>
-      <c r="G449">
+      <c r="G449" s="1">
         <v>76</v>
       </c>
-      <c r="H449" t="s">
-        <v>21</v>
-      </c>
-      <c r="I449" t="s">
-        <v>22</v>
-      </c>
-      <c r="J449" t="s">
-        <v>22</v>
-      </c>
-      <c r="M449" t="s">
+      <c r="H449" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I449" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J449" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K449" s="7"/>
+      <c r="M449" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="O449" t="s">
+      <c r="O449" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="P449" t="s">
+      <c r="P449" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="Q449" t="s">
+      <c r="Q449" s="1" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="450" spans="1:17">
-      <c r="A450">
+    <row r="450" s="1" customFormat="1" spans="1:17">
+      <c r="A450" s="1">
         <v>449</v>
       </c>
-      <c r="B450">
-        <v>2</v>
-      </c>
-      <c r="C450" t="s">
+      <c r="B450" s="1">
+        <v>2</v>
+      </c>
+      <c r="C450" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D450">
+      <c r="D450" s="1">
         <v>65</v>
       </c>
-      <c r="E450">
+      <c r="E450" s="1">
         <v>65</v>
       </c>
-      <c r="F450">
+      <c r="F450" s="1">
         <v>77</v>
       </c>
-      <c r="G450">
+      <c r="G450" s="1">
         <v>77</v>
       </c>
-      <c r="H450" t="s">
-        <v>21</v>
-      </c>
-      <c r="I450" t="s">
-        <v>22</v>
-      </c>
-      <c r="J450" t="s">
-        <v>22</v>
-      </c>
-      <c r="M450" t="s">
+      <c r="H450" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I450" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J450" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K450" s="7"/>
+      <c r="M450" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="O450" t="s">
+      <c r="O450" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="P450" t="s">
+      <c r="P450" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="Q450" t="s">
+      <c r="Q450" s="1" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="451" spans="1:17">
-      <c r="A451">
+    <row r="451" s="1" customFormat="1" spans="1:17">
+      <c r="A451" s="1">
         <v>450</v>
       </c>
-      <c r="B451">
-        <v>2</v>
-      </c>
-      <c r="C451" t="s">
+      <c r="B451" s="1">
+        <v>2</v>
+      </c>
+      <c r="C451" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D451">
+      <c r="D451" s="1">
         <v>65</v>
       </c>
-      <c r="E451">
+      <c r="E451" s="1">
         <v>65</v>
       </c>
-      <c r="F451">
+      <c r="F451" s="1">
         <v>77</v>
       </c>
-      <c r="G451">
+      <c r="G451" s="1">
         <v>77</v>
       </c>
-      <c r="H451" t="s">
-        <v>21</v>
-      </c>
-      <c r="I451" t="s">
-        <v>22</v>
-      </c>
-      <c r="J451" t="s">
-        <v>22</v>
-      </c>
-      <c r="M451" t="s">
+      <c r="H451" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I451" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J451" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K451" s="7"/>
+      <c r="M451" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="O451" t="s">
+      <c r="O451" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="P451" t="s">
+      <c r="P451" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="Q451" t="s">
+      <c r="Q451" s="1" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="452" spans="1:17">
-      <c r="A452">
+    <row r="452" s="1" customFormat="1" spans="1:17">
+      <c r="A452" s="1">
         <v>451</v>
       </c>
-      <c r="B452">
-        <v>2</v>
-      </c>
-      <c r="C452" t="s">
+      <c r="B452" s="1">
+        <v>2</v>
+      </c>
+      <c r="C452" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D452">
+      <c r="D452" s="1">
         <v>65</v>
       </c>
-      <c r="E452">
+      <c r="E452" s="1">
         <v>65</v>
       </c>
-      <c r="F452">
+      <c r="F452" s="1">
         <v>77</v>
       </c>
-      <c r="G452">
+      <c r="G452" s="1">
         <v>77</v>
       </c>
-      <c r="H452" t="s">
-        <v>21</v>
-      </c>
-      <c r="I452" t="s">
-        <v>22</v>
-      </c>
-      <c r="J452" t="s">
-        <v>21</v>
-      </c>
-      <c r="M452" t="s">
+      <c r="H452" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I452" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J452" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K452" s="7"/>
+      <c r="M452" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="O452" t="s">
+      <c r="O452" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="P452" t="s">
+      <c r="P452" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="Q452" t="s">
+      <c r="Q452" s="1" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="453" spans="1:17">
-      <c r="A453">
+    <row r="453" s="1" customFormat="1" spans="1:17">
+      <c r="A453" s="1">
         <v>452</v>
       </c>
-      <c r="B453">
-        <v>2</v>
-      </c>
-      <c r="C453" t="s">
+      <c r="B453" s="1">
+        <v>2</v>
+      </c>
+      <c r="C453" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D453">
+      <c r="D453" s="1">
         <v>65</v>
       </c>
-      <c r="E453">
+      <c r="E453" s="1">
         <v>65</v>
       </c>
-      <c r="F453">
+      <c r="F453" s="1">
         <v>77</v>
       </c>
-      <c r="G453">
+      <c r="G453" s="1">
         <v>77</v>
       </c>
-      <c r="H453" t="s">
-        <v>21</v>
-      </c>
-      <c r="I453" t="s">
-        <v>22</v>
-      </c>
-      <c r="J453" t="s">
-        <v>22</v>
-      </c>
-      <c r="M453" t="s">
+      <c r="H453" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I453" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J453" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K453" s="7"/>
+      <c r="M453" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="O453" t="s">
+      <c r="O453" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="P453" t="s">
+      <c r="P453" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="Q453" t="s">
+      <c r="Q453" s="1" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="454" spans="1:17">
-      <c r="A454">
+    <row r="454" s="1" customFormat="1" spans="1:17">
+      <c r="A454" s="1">
         <v>453</v>
       </c>
-      <c r="B454">
-        <v>2</v>
-      </c>
-      <c r="C454" t="s">
+      <c r="B454" s="1">
+        <v>2</v>
+      </c>
+      <c r="C454" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D454">
+      <c r="D454" s="1">
         <v>65</v>
       </c>
-      <c r="E454">
+      <c r="E454" s="1">
         <v>65</v>
       </c>
-      <c r="F454">
+      <c r="F454" s="1">
         <v>77</v>
       </c>
-      <c r="G454">
+      <c r="G454" s="1">
         <v>77</v>
       </c>
-      <c r="H454" t="s">
-        <v>22</v>
-      </c>
-      <c r="I454" t="s">
-        <v>22</v>
-      </c>
-      <c r="J454" t="s">
-        <v>22</v>
-      </c>
-      <c r="M454" t="s">
+      <c r="H454" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I454" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J454" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K454" s="7"/>
+      <c r="M454" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="O454" t="s">
+      <c r="O454" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="P454" t="s">
+      <c r="P454" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="Q454" t="s">
+      <c r="Q454" s="1" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="455" spans="1:17">
-      <c r="A455">
+    <row r="455" s="1" customFormat="1" spans="1:17">
+      <c r="A455" s="1">
         <v>454</v>
       </c>
-      <c r="B455">
-        <v>2</v>
-      </c>
-      <c r="C455" t="s">
+      <c r="B455" s="1">
+        <v>2</v>
+      </c>
+      <c r="C455" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D455">
+      <c r="D455" s="1">
         <v>65</v>
       </c>
-      <c r="E455">
+      <c r="E455" s="1">
         <v>66</v>
       </c>
-      <c r="F455">
+      <c r="F455" s="1">
         <v>77</v>
       </c>
-      <c r="G455">
+      <c r="G455" s="1">
         <v>78</v>
       </c>
-      <c r="H455" t="s">
-        <v>21</v>
-      </c>
-      <c r="I455" t="s">
-        <v>22</v>
-      </c>
-      <c r="J455" t="s">
-        <v>22</v>
-      </c>
-      <c r="M455" t="s">
+      <c r="H455" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I455" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J455" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K455" s="7"/>
+      <c r="M455" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="O455" t="s">
+      <c r="O455" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="P455" t="s">
+      <c r="P455" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="Q455" t="s">
+      <c r="Q455" s="1" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="456" spans="1:17">
-      <c r="A456">
+    <row r="456" s="1" customFormat="1" spans="1:17">
+      <c r="A456" s="1">
         <v>455</v>
       </c>
-      <c r="B456">
-        <v>2</v>
-      </c>
-      <c r="C456" t="s">
+      <c r="B456" s="1">
+        <v>2</v>
+      </c>
+      <c r="C456" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D456">
+      <c r="D456" s="1">
         <v>66</v>
       </c>
-      <c r="E456">
+      <c r="E456" s="1">
         <v>66</v>
       </c>
-      <c r="F456">
+      <c r="F456" s="1">
         <v>78</v>
       </c>
-      <c r="G456">
+      <c r="G456" s="1">
         <v>78</v>
       </c>
-      <c r="H456" t="s">
-        <v>21</v>
-      </c>
-      <c r="I456" t="s">
-        <v>22</v>
-      </c>
-      <c r="J456" t="s">
-        <v>21</v>
-      </c>
-      <c r="M456" t="s">
+      <c r="H456" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I456" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J456" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K456" s="7"/>
+      <c r="M456" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="O456" t="s">
+      <c r="O456" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="P456" t="s">
+      <c r="P456" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="Q456" t="s">
+      <c r="Q456" s="1" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="457" spans="1:17">
-      <c r="A457">
+    <row r="457" s="1" customFormat="1" spans="1:17">
+      <c r="A457" s="1">
         <v>456</v>
       </c>
-      <c r="B457">
-        <v>2</v>
-      </c>
-      <c r="C457" t="s">
+      <c r="B457" s="1">
+        <v>2</v>
+      </c>
+      <c r="C457" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D457">
+      <c r="D457" s="1">
         <v>66</v>
       </c>
-      <c r="E457">
+      <c r="E457" s="1">
         <v>66</v>
       </c>
-      <c r="F457">
+      <c r="F457" s="1">
         <v>78</v>
       </c>
-      <c r="G457">
+      <c r="G457" s="1">
         <v>78</v>
       </c>
-      <c r="H457" t="s">
-        <v>21</v>
-      </c>
-      <c r="I457" t="s">
-        <v>22</v>
-      </c>
-      <c r="J457" t="s">
-        <v>22</v>
-      </c>
-      <c r="M457" t="s">
+      <c r="H457" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I457" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J457" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K457" s="7"/>
+      <c r="M457" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="O457" t="s">
+      <c r="O457" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="P457" t="s">
+      <c r="P457" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="Q457" t="s">
+      <c r="Q457" s="1" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="458" spans="1:17">
-      <c r="A458">
+    <row r="458" s="1" customFormat="1" spans="1:17">
+      <c r="A458" s="1">
         <v>457</v>
       </c>
-      <c r="B458">
-        <v>2</v>
-      </c>
-      <c r="C458" t="s">
+      <c r="B458" s="1">
+        <v>2</v>
+      </c>
+      <c r="C458" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D458">
+      <c r="D458" s="1">
         <v>66</v>
       </c>
-      <c r="E458">
+      <c r="E458" s="1">
         <v>66</v>
       </c>
-      <c r="F458">
+      <c r="F458" s="1">
         <v>78</v>
       </c>
-      <c r="G458">
+      <c r="G458" s="1">
         <v>78</v>
       </c>
-      <c r="H458" t="s">
-        <v>22</v>
-      </c>
-      <c r="I458" t="s">
-        <v>22</v>
-      </c>
-      <c r="J458" t="s">
-        <v>22</v>
-      </c>
-      <c r="M458" t="s">
+      <c r="H458" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I458" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J458" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K458" s="7"/>
+      <c r="M458" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="O458" t="s">
+      <c r="O458" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="P458" t="s">
+      <c r="P458" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="Q458" t="s">
+      <c r="Q458" s="1" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="459" spans="1:17">
-      <c r="A459">
+    <row r="459" s="1" customFormat="1" spans="1:17">
+      <c r="A459" s="1">
         <v>458</v>
       </c>
-      <c r="B459">
-        <v>2</v>
-      </c>
-      <c r="C459" t="s">
+      <c r="B459" s="1">
+        <v>2</v>
+      </c>
+      <c r="C459" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D459">
+      <c r="D459" s="1">
         <v>67</v>
       </c>
-      <c r="E459">
+      <c r="E459" s="1">
         <v>71</v>
       </c>
-      <c r="F459">
+      <c r="F459" s="1">
         <v>79</v>
       </c>
-      <c r="G459">
+      <c r="G459" s="1">
         <v>83</v>
       </c>
-      <c r="H459" t="s">
-        <v>22</v>
-      </c>
-      <c r="I459" t="s">
-        <v>22</v>
-      </c>
-      <c r="J459" t="s">
-        <v>22</v>
-      </c>
-      <c r="M459" t="s">
+      <c r="H459" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I459" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J459" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K459" s="7"/>
+      <c r="M459" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="O459" t="s">
+      <c r="O459" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="P459" t="s">
+      <c r="P459" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="Q459" t="s">
+      <c r="Q459" s="1" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="460" spans="1:17">
-      <c r="A460">
+    <row r="460" s="1" customFormat="1" spans="1:17">
+      <c r="A460" s="1">
         <v>459</v>
       </c>
-      <c r="B460">
-        <v>2</v>
-      </c>
-      <c r="C460" t="s">
+      <c r="B460" s="1">
+        <v>2</v>
+      </c>
+      <c r="C460" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="D460">
+      <c r="D460" s="1">
         <v>71</v>
       </c>
-      <c r="E460">
+      <c r="E460" s="1">
         <v>71</v>
       </c>
-      <c r="F460">
+      <c r="F460" s="1">
         <v>83</v>
       </c>
-      <c r="G460">
+      <c r="G460" s="1">
         <v>83</v>
       </c>
-      <c r="H460" t="s">
-        <v>22</v>
-      </c>
-      <c r="I460" t="s">
-        <v>22</v>
-      </c>
-      <c r="J460" t="s">
-        <v>22</v>
-      </c>
-      <c r="M460" t="s">
+      <c r="H460" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I460" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J460" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K460" s="7"/>
+      <c r="M460" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="O460" t="s">
+      <c r="O460" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="P460" t="s">
+      <c r="P460" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="Q460" t="s">
+      <c r="Q460" s="1" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="461" spans="1:17">
-      <c r="A461">
+    <row r="461" s="1" customFormat="1" spans="1:17">
+      <c r="A461" s="1">
         <v>460</v>
       </c>
-      <c r="B461">
-        <v>2</v>
-      </c>
-      <c r="C461" t="s">
+      <c r="B461" s="1">
+        <v>2</v>
+      </c>
+      <c r="C461" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="D461">
+      <c r="D461" s="1">
         <v>72</v>
       </c>
-      <c r="E461">
+      <c r="E461" s="1">
         <v>72</v>
       </c>
-      <c r="F461">
+      <c r="F461" s="1">
         <v>84</v>
       </c>
-      <c r="G461">
+      <c r="G461" s="1">
         <v>84</v>
       </c>
-      <c r="H461" t="s">
-        <v>21</v>
-      </c>
-      <c r="I461" t="s">
-        <v>22</v>
-      </c>
-      <c r="J461" t="s">
-        <v>21</v>
-      </c>
-      <c r="M461" t="s">
+      <c r="H461" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I461" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J461" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K461" s="7"/>
+      <c r="M461" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="O461" t="s">
+      <c r="O461" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="P461" t="s">
+      <c r="P461" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="Q461" t="s">
+      <c r="Q461" s="1" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="462" spans="1:17">
-      <c r="A462">
+    <row r="462" s="1" customFormat="1" spans="1:17">
+      <c r="A462" s="1">
         <v>461</v>
       </c>
-      <c r="B462">
-        <v>2</v>
-      </c>
-      <c r="C462" t="s">
+      <c r="B462" s="1">
+        <v>2</v>
+      </c>
+      <c r="C462" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="D462">
+      <c r="D462" s="1">
         <v>72</v>
       </c>
-      <c r="E462">
+      <c r="E462" s="1">
         <v>72</v>
       </c>
-      <c r="F462">
+      <c r="F462" s="1">
         <v>84</v>
       </c>
-      <c r="G462">
+      <c r="G462" s="1">
         <v>84</v>
       </c>
-      <c r="H462" t="s">
-        <v>21</v>
-      </c>
-      <c r="I462" t="s">
-        <v>22</v>
-      </c>
-      <c r="J462" t="s">
-        <v>22</v>
-      </c>
-      <c r="M462" t="s">
+      <c r="H462" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I462" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J462" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K462" s="7"/>
+      <c r="M462" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="O462" t="s">
+      <c r="O462" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="P462" t="s">
+      <c r="P462" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="Q462" t="s">
+      <c r="Q462" s="1" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="463" spans="1:17">
-      <c r="A463">
+    <row r="463" s="1" customFormat="1" spans="1:17">
+      <c r="A463" s="1">
         <v>462</v>
       </c>
-      <c r="B463">
-        <v>2</v>
-      </c>
-      <c r="C463" t="s">
+      <c r="B463" s="1">
+        <v>2</v>
+      </c>
+      <c r="C463" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="D463">
+      <c r="D463" s="1">
         <v>72</v>
       </c>
-      <c r="E463">
+      <c r="E463" s="1">
         <v>72</v>
       </c>
-      <c r="F463">
+      <c r="F463" s="1">
         <v>84</v>
       </c>
-      <c r="G463">
+      <c r="G463" s="1">
         <v>84</v>
       </c>
-      <c r="H463" t="s">
-        <v>21</v>
-      </c>
-      <c r="I463" t="s">
-        <v>22</v>
-      </c>
-      <c r="J463" t="s">
-        <v>21</v>
-      </c>
-      <c r="M463" t="s">
+      <c r="H463" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I463" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J463" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K463" s="7"/>
+      <c r="M463" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="O463" t="s">
+      <c r="O463" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="P463" t="s">
+      <c r="P463" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="Q463" t="s">
+      <c r="Q463" s="1" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="464" spans="1:17">
-      <c r="A464">
+    <row r="464" s="1" customFormat="1" spans="1:17">
+      <c r="A464" s="1">
         <v>463</v>
       </c>
-      <c r="B464">
-        <v>2</v>
-      </c>
-      <c r="C464" t="s">
+      <c r="B464" s="1">
+        <v>2</v>
+      </c>
+      <c r="C464" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="D464">
+      <c r="D464" s="1">
         <v>72</v>
       </c>
-      <c r="E464">
+      <c r="E464" s="1">
         <v>72</v>
       </c>
-      <c r="F464">
+      <c r="F464" s="1">
         <v>84</v>
       </c>
-      <c r="G464">
+      <c r="G464" s="1">
         <v>84</v>
       </c>
-      <c r="H464" t="s">
-        <v>22</v>
-      </c>
-      <c r="I464" t="s">
-        <v>22</v>
-      </c>
-      <c r="J464" t="s">
-        <v>21</v>
-      </c>
-      <c r="M464" t="s">
+      <c r="H464" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I464" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J464" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K464" s="7"/>
+      <c r="M464" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="O464" t="s">
+      <c r="O464" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="P464" t="s">
+      <c r="P464" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="Q464" t="s">
+      <c r="Q464" s="1" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="465" spans="1:17">
-      <c r="A465">
+    <row r="465" s="1" customFormat="1" spans="1:17">
+      <c r="A465" s="1">
         <v>464</v>
       </c>
-      <c r="B465">
-        <v>2</v>
-      </c>
-      <c r="C465" t="s">
+      <c r="B465" s="1">
+        <v>2</v>
+      </c>
+      <c r="C465" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="D465">
+      <c r="D465" s="1">
         <v>73</v>
       </c>
-      <c r="E465">
+      <c r="E465" s="1">
         <v>73</v>
       </c>
-      <c r="F465">
+      <c r="F465" s="1">
         <v>85</v>
       </c>
-      <c r="G465">
+      <c r="G465" s="1">
         <v>85</v>
       </c>
-      <c r="H465" t="s">
-        <v>22</v>
-      </c>
-      <c r="I465" t="s">
-        <v>22</v>
-      </c>
-      <c r="J465" t="s">
-        <v>22</v>
-      </c>
-      <c r="M465" t="s">
+      <c r="H465" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I465" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J465" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K465" s="7"/>
+      <c r="M465" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="O465" t="s">
+      <c r="O465" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="P465" t="s">
+      <c r="P465" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="Q465" t="s">
+      <c r="Q465" s="1" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="466" spans="1:17">
-      <c r="A466">
+    <row r="466" s="1" customFormat="1" spans="1:17">
+      <c r="A466" s="1">
         <v>465</v>
       </c>
-      <c r="B466">
-        <v>2</v>
-      </c>
-      <c r="C466" t="s">
+      <c r="B466" s="1">
+        <v>2</v>
+      </c>
+      <c r="C466" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="D466">
+      <c r="D466" s="1">
         <v>73</v>
       </c>
-      <c r="E466">
+      <c r="E466" s="1">
         <v>73</v>
       </c>
-      <c r="F466">
+      <c r="F466" s="1">
         <v>85</v>
       </c>
-      <c r="G466">
+      <c r="G466" s="1">
         <v>85</v>
       </c>
-      <c r="H466" t="s">
-        <v>22</v>
-      </c>
-      <c r="I466" t="s">
-        <v>22</v>
-      </c>
-      <c r="J466" t="s">
-        <v>22</v>
-      </c>
-      <c r="M466" t="s">
+      <c r="H466" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I466" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J466" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K466" s="7"/>
+      <c r="M466" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="O466" t="s">
+      <c r="O466" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="P466" t="s">
+      <c r="P466" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="Q466" t="s">
+      <c r="Q466" s="1" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="467" spans="1:17">
-      <c r="A467">
+    <row r="467" s="1" customFormat="1" spans="1:17">
+      <c r="A467" s="1">
         <v>466</v>
       </c>
-      <c r="B467">
-        <v>2</v>
-      </c>
-      <c r="C467" t="s">
+      <c r="B467" s="1">
+        <v>2</v>
+      </c>
+      <c r="C467" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="D467">
+      <c r="D467" s="1">
         <v>73</v>
       </c>
-      <c r="E467">
+      <c r="E467" s="1">
         <v>75</v>
       </c>
-      <c r="F467">
+      <c r="F467" s="1">
         <v>85</v>
       </c>
-      <c r="G467">
+      <c r="G467" s="1">
         <v>87</v>
       </c>
-      <c r="H467" t="s">
-        <v>22</v>
-      </c>
-      <c r="I467" t="s">
-        <v>22</v>
-      </c>
-      <c r="J467" t="s">
-        <v>21</v>
-      </c>
-      <c r="M467" t="s">
+      <c r="H467" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I467" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J467" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K467" s="7"/>
+      <c r="M467" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="O467" t="s">
+      <c r="O467" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="P467" t="s">
+      <c r="P467" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="Q467" t="s">
+      <c r="Q467" s="1" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="468" spans="1:17">
-      <c r="A468">
+    <row r="468" s="1" customFormat="1" spans="1:17">
+      <c r="A468" s="1">
         <v>467</v>
       </c>
-      <c r="B468">
-        <v>2</v>
-      </c>
-      <c r="C468" t="s">
+      <c r="B468" s="1">
+        <v>2</v>
+      </c>
+      <c r="C468" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="D468">
+      <c r="D468" s="1">
         <v>75</v>
       </c>
-      <c r="E468">
+      <c r="E468" s="1">
         <v>79</v>
       </c>
-      <c r="F468">
+      <c r="F468" s="1">
         <v>87</v>
       </c>
-      <c r="G468">
+      <c r="G468" s="1">
         <v>91</v>
       </c>
-      <c r="H468" t="s">
-        <v>22</v>
-      </c>
-      <c r="I468" t="s">
-        <v>22</v>
-      </c>
-      <c r="J468" t="s">
-        <v>22</v>
-      </c>
-      <c r="M468" t="s">
+      <c r="H468" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I468" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J468" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K468" s="7"/>
+      <c r="M468" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="O468" t="s">
+      <c r="O468" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="P468" t="s">
+      <c r="P468" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="Q468" t="s">
+      <c r="Q468" s="1" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="469" spans="1:17">
-      <c r="A469">
+    <row r="469" s="1" customFormat="1" spans="1:17">
+      <c r="A469" s="1">
         <v>468</v>
       </c>
-      <c r="B469">
-        <v>2</v>
-      </c>
-      <c r="C469" t="s">
+      <c r="B469" s="1">
+        <v>2</v>
+      </c>
+      <c r="C469" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="D469">
+      <c r="D469" s="1">
         <v>80</v>
       </c>
-      <c r="E469">
+      <c r="E469" s="1">
         <v>81</v>
       </c>
-      <c r="F469">
+      <c r="F469" s="1">
         <v>92</v>
       </c>
-      <c r="G469">
+      <c r="G469" s="1">
         <v>93</v>
       </c>
-      <c r="H469" t="s">
-        <v>22</v>
-      </c>
-      <c r="I469" t="s">
-        <v>22</v>
-      </c>
-      <c r="J469" t="s">
-        <v>22</v>
-      </c>
-      <c r="M469" t="s">
+      <c r="H469" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I469" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J469" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K469" s="7"/>
+      <c r="M469" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="O469" t="s">
+      <c r="O469" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="P469" t="s">
+      <c r="P469" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="Q469" t="s">
+      <c r="Q469" s="1" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="470" spans="1:17">
-      <c r="A470">
+    <row r="470" s="1" customFormat="1" spans="1:17">
+      <c r="A470" s="1">
         <v>469</v>
       </c>
-      <c r="B470">
-        <v>2</v>
-      </c>
-      <c r="C470" t="s">
+      <c r="B470" s="1">
+        <v>2</v>
+      </c>
+      <c r="C470" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="D470">
+      <c r="D470" s="1">
         <v>81</v>
       </c>
-      <c r="E470">
+      <c r="E470" s="1">
         <v>82</v>
       </c>
-      <c r="F470">
+      <c r="F470" s="1">
         <v>93</v>
       </c>
-      <c r="G470">
+      <c r="G470" s="1">
         <v>94</v>
       </c>
-      <c r="H470" t="s">
-        <v>21</v>
-      </c>
-      <c r="I470" t="s">
-        <v>22</v>
-      </c>
-      <c r="J470" t="s">
-        <v>22</v>
-      </c>
-      <c r="K470" s="6" t="s">
+      <c r="H470" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I470" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J470" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K470" s="7" t="s">
         <v>1125</v>
       </c>
-      <c r="M470" t="s">
+      <c r="M470" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="O470" t="s">
+      <c r="O470" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="P470" t="s">
+      <c r="P470" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="Q470" t="s">
+      <c r="Q470" s="1" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="471" spans="1:17">
-      <c r="A471">
+    <row r="471" s="1" customFormat="1" spans="1:17">
+      <c r="A471" s="1">
         <v>470</v>
       </c>
-      <c r="B471">
-        <v>2</v>
-      </c>
-      <c r="C471" t="s">
+      <c r="B471" s="1">
+        <v>2</v>
+      </c>
+      <c r="C471" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="D471">
+      <c r="D471" s="1">
         <v>82</v>
       </c>
-      <c r="E471">
+      <c r="E471" s="1">
         <v>84</v>
       </c>
-      <c r="F471">
+      <c r="F471" s="1">
         <v>94</v>
       </c>
-      <c r="G471">
+      <c r="G471" s="1">
         <v>96</v>
       </c>
-      <c r="H471" t="s">
-        <v>21</v>
-      </c>
-      <c r="I471" t="s">
-        <v>22</v>
-      </c>
-      <c r="J471" t="s">
-        <v>22</v>
-      </c>
-      <c r="M471" t="s">
+      <c r="H471" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I471" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J471" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K471" s="7"/>
+      <c r="M471" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="O471" t="s">
+      <c r="O471" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="P471" t="s">
+      <c r="P471" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="Q471" t="s">
+      <c r="Q471" s="1" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="472" spans="1:17">
-      <c r="A472">
+    <row r="472" s="1" customFormat="1" spans="1:17">
+      <c r="A472" s="1">
         <v>471</v>
       </c>
-      <c r="B472">
-        <v>2</v>
-      </c>
-      <c r="C472" t="s">
+      <c r="B472" s="1">
+        <v>2</v>
+      </c>
+      <c r="C472" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="D472">
+      <c r="D472" s="1">
         <v>84</v>
       </c>
-      <c r="E472">
+      <c r="E472" s="1">
         <v>85</v>
       </c>
-      <c r="F472">
+      <c r="F472" s="1">
         <v>96</v>
       </c>
-      <c r="G472">
+      <c r="G472" s="1">
         <v>97</v>
       </c>
-      <c r="H472" t="s">
-        <v>22</v>
-      </c>
-      <c r="I472" t="s">
-        <v>22</v>
-      </c>
-      <c r="J472" t="s">
-        <v>22</v>
-      </c>
-      <c r="M472" t="s">
+      <c r="H472" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I472" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J472" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K472" s="7"/>
+      <c r="M472" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="O472" t="s">
+      <c r="O472" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="P472" t="s">
+      <c r="P472" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="Q472" t="s">
+      <c r="Q472" s="1" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="473" spans="1:17">
-      <c r="A473">
+    <row r="473" s="1" customFormat="1" spans="1:17">
+      <c r="A473" s="1">
         <v>472</v>
       </c>
-      <c r="B473">
-        <v>2</v>
-      </c>
-      <c r="C473" t="s">
+      <c r="B473" s="1">
+        <v>2</v>
+      </c>
+      <c r="C473" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="D473">
+      <c r="D473" s="1">
         <v>86</v>
       </c>
-      <c r="E473">
+      <c r="E473" s="1">
         <v>87</v>
       </c>
-      <c r="F473">
+      <c r="F473" s="1">
         <v>98</v>
       </c>
-      <c r="G473">
+      <c r="G473" s="1">
         <v>99</v>
       </c>
-      <c r="H473" t="s">
-        <v>21</v>
-      </c>
-      <c r="I473" t="s">
-        <v>22</v>
-      </c>
-      <c r="J473" t="s">
-        <v>22</v>
-      </c>
-      <c r="M473" t="s">
+      <c r="H473" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I473" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J473" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K473" s="7"/>
+      <c r="M473" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="O473" t="s">
+      <c r="O473" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="P473" t="s">
+      <c r="P473" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="Q473" t="s">
+      <c r="Q473" s="1" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="474" spans="1:17">
-      <c r="A474">
+    <row r="474" s="1" customFormat="1" spans="1:17">
+      <c r="A474" s="1">
         <v>473</v>
       </c>
-      <c r="B474">
-        <v>2</v>
-      </c>
-      <c r="C474" t="s">
+      <c r="B474" s="1">
+        <v>2</v>
+      </c>
+      <c r="C474" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="D474">
+      <c r="D474" s="1">
         <v>87</v>
       </c>
-      <c r="E474">
+      <c r="E474" s="1">
         <v>88</v>
       </c>
-      <c r="F474">
+      <c r="F474" s="1">
         <v>99</v>
       </c>
-      <c r="G474">
+      <c r="G474" s="1">
         <v>100</v>
       </c>
-      <c r="H474" t="s">
-        <v>21</v>
-      </c>
-      <c r="I474" t="s">
-        <v>22</v>
-      </c>
-      <c r="J474" t="s">
-        <v>22</v>
-      </c>
-      <c r="M474" t="s">
+      <c r="H474" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I474" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J474" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K474" s="7"/>
+      <c r="M474" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="O474" t="s">
+      <c r="O474" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="P474" t="s">
+      <c r="P474" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="Q474" t="s">
+      <c r="Q474" s="1" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="475" spans="1:17">
-      <c r="A475">
+    <row r="475" s="1" customFormat="1" spans="1:17">
+      <c r="A475" s="1">
         <v>474</v>
       </c>
-      <c r="B475">
-        <v>2</v>
-      </c>
-      <c r="C475" t="s">
+      <c r="B475" s="1">
+        <v>2</v>
+      </c>
+      <c r="C475" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="D475">
+      <c r="D475" s="1">
         <v>89</v>
       </c>
-      <c r="E475">
+      <c r="E475" s="1">
         <v>90</v>
       </c>
-      <c r="F475">
+      <c r="F475" s="1">
         <v>101</v>
       </c>
-      <c r="G475">
+      <c r="G475" s="1">
         <v>102</v>
       </c>
-      <c r="H475" t="s">
-        <v>22</v>
-      </c>
-      <c r="I475" t="s">
-        <v>22</v>
-      </c>
-      <c r="J475" t="s">
-        <v>21</v>
-      </c>
-      <c r="M475" t="s">
+      <c r="H475" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I475" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J475" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K475" s="7"/>
+      <c r="M475" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="O475" t="s">
+      <c r="O475" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="P475" t="s">
+      <c r="P475" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="Q475" t="s">
+      <c r="Q475" s="1" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="476" spans="1:17">
-      <c r="A476">
+    <row r="476" s="1" customFormat="1" spans="1:17">
+      <c r="A476" s="1">
         <v>475</v>
       </c>
-      <c r="B476">
-        <v>2</v>
-      </c>
-      <c r="C476" t="s">
+      <c r="B476" s="1">
+        <v>2</v>
+      </c>
+      <c r="C476" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="D476">
+      <c r="D476" s="1">
         <v>90</v>
       </c>
-      <c r="E476">
+      <c r="E476" s="1">
         <v>91</v>
       </c>
-      <c r="F476">
+      <c r="F476" s="1">
         <v>102</v>
       </c>
-      <c r="G476">
+      <c r="G476" s="1">
         <v>103</v>
       </c>
-      <c r="H476" t="s">
-        <v>21</v>
-      </c>
-      <c r="I476" t="s">
-        <v>22</v>
-      </c>
-      <c r="J476" t="s">
-        <v>22</v>
-      </c>
-      <c r="M476" t="s">
+      <c r="H476" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I476" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J476" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K476" s="7"/>
+      <c r="M476" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="O476" t="s">
+      <c r="O476" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="P476" t="s">
+      <c r="P476" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="Q476" t="s">
+      <c r="Q476" s="1" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="477" spans="1:17">
-      <c r="A477">
+    <row r="477" s="1" customFormat="1" spans="1:17">
+      <c r="A477" s="1">
         <v>476</v>
       </c>
-      <c r="B477">
-        <v>2</v>
-      </c>
-      <c r="C477" t="s">
+      <c r="B477" s="1">
+        <v>2</v>
+      </c>
+      <c r="C477" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="D477">
+      <c r="D477" s="1">
         <v>91</v>
       </c>
-      <c r="E477">
+      <c r="E477" s="1">
         <v>92</v>
       </c>
-      <c r="F477">
+      <c r="F477" s="1">
         <v>103</v>
       </c>
-      <c r="G477">
+      <c r="G477" s="1">
         <v>104</v>
       </c>
-      <c r="H477" t="s">
-        <v>21</v>
-      </c>
-      <c r="I477" t="s">
-        <v>22</v>
-      </c>
-      <c r="J477" t="s">
-        <v>22</v>
-      </c>
-      <c r="M477" t="s">
+      <c r="H477" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I477" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J477" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K477" s="7"/>
+      <c r="M477" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="O477" t="s">
+      <c r="O477" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="P477" t="s">
+      <c r="P477" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="Q477" t="s">
+      <c r="Q477" s="1" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="478" spans="1:17">
-      <c r="A478">
+    <row r="478" s="1" customFormat="1" spans="1:17">
+      <c r="A478" s="1">
         <v>477</v>
       </c>
-      <c r="B478">
-        <v>2</v>
-      </c>
-      <c r="C478" t="s">
+      <c r="B478" s="1">
+        <v>2</v>
+      </c>
+      <c r="C478" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="D478">
+      <c r="D478" s="1">
         <v>92</v>
       </c>
-      <c r="E478">
+      <c r="E478" s="1">
         <v>93</v>
       </c>
-      <c r="F478">
+      <c r="F478" s="1">
         <v>104</v>
       </c>
-      <c r="G478">
+      <c r="G478" s="1">
         <v>105</v>
       </c>
-      <c r="H478" t="s">
-        <v>21</v>
-      </c>
-      <c r="I478" t="s">
-        <v>22</v>
-      </c>
-      <c r="J478" t="s">
-        <v>22</v>
-      </c>
-      <c r="M478" t="s">
+      <c r="H478" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I478" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J478" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K478" s="7"/>
+      <c r="M478" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="O478" t="s">
+      <c r="O478" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="P478" t="s">
+      <c r="P478" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="Q478" t="s">
+      <c r="Q478" s="1" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="479" spans="1:17">
-      <c r="A479">
+    <row r="479" s="1" customFormat="1" spans="1:17">
+      <c r="A479" s="1">
         <v>478</v>
       </c>
-      <c r="B479">
-        <v>2</v>
-      </c>
-      <c r="C479" t="s">
+      <c r="B479" s="1">
+        <v>2</v>
+      </c>
+      <c r="C479" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="D479">
+      <c r="D479" s="1">
         <v>93</v>
       </c>
-      <c r="E479">
+      <c r="E479" s="1">
         <v>93</v>
       </c>
-      <c r="F479">
+      <c r="F479" s="1">
         <v>105</v>
       </c>
-      <c r="G479">
+      <c r="G479" s="1">
         <v>105</v>
       </c>
-      <c r="H479" t="s">
-        <v>22</v>
-      </c>
-      <c r="I479" t="s">
-        <v>22</v>
-      </c>
-      <c r="J479" t="s">
-        <v>22</v>
-      </c>
-      <c r="M479" t="s">
+      <c r="H479" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I479" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J479" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K479" s="7"/>
+      <c r="M479" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="O479" t="s">
+      <c r="O479" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="P479" t="s">
+      <c r="P479" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="Q479" t="s">
+      <c r="Q479" s="1" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="480" spans="1:17">
-      <c r="A480">
+    <row r="480" s="1" customFormat="1" spans="1:17">
+      <c r="A480" s="1">
         <v>479</v>
       </c>
-      <c r="B480">
-        <v>2</v>
-      </c>
-      <c r="C480" t="s">
+      <c r="B480" s="1">
+        <v>2</v>
+      </c>
+      <c r="C480" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="D480">
+      <c r="D480" s="1">
         <v>94</v>
       </c>
-      <c r="E480">
+      <c r="E480" s="1">
         <v>94</v>
       </c>
-      <c r="F480">
+      <c r="F480" s="1">
         <v>106</v>
       </c>
-      <c r="G480">
+      <c r="G480" s="1">
         <v>106</v>
       </c>
-      <c r="H480" t="s">
-        <v>22</v>
-      </c>
-      <c r="I480" t="s">
-        <v>22</v>
-      </c>
-      <c r="J480" t="s">
-        <v>22</v>
-      </c>
-      <c r="M480" t="s">
+      <c r="H480" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I480" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J480" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K480" s="7"/>
+      <c r="M480" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="O480" t="s">
+      <c r="O480" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="P480" t="s">
+      <c r="P480" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="Q480" t="s">
+      <c r="Q480" s="1" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="481" spans="1:17">
-      <c r="A481">
+    <row r="481" s="1" customFormat="1" spans="1:17">
+      <c r="A481" s="1">
         <v>480</v>
       </c>
-      <c r="B481">
-        <v>2</v>
-      </c>
-      <c r="C481" t="s">
+      <c r="B481" s="1">
+        <v>2</v>
+      </c>
+      <c r="C481" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="D481">
+      <c r="D481" s="1">
         <v>94</v>
       </c>
-      <c r="E481">
+      <c r="E481" s="1">
         <v>95</v>
       </c>
-      <c r="F481">
+      <c r="F481" s="1">
         <v>106</v>
       </c>
-      <c r="G481">
+      <c r="G481" s="1">
         <v>107</v>
       </c>
-      <c r="H481" t="s">
-        <v>21</v>
-      </c>
-      <c r="I481" t="s">
-        <v>22</v>
-      </c>
-      <c r="J481" t="s">
-        <v>21</v>
-      </c>
-      <c r="M481" t="s">
+      <c r="H481" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I481" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J481" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K481" s="7"/>
+      <c r="M481" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="O481" t="s">
+      <c r="O481" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="P481" t="s">
+      <c r="P481" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="Q481" t="s">
+      <c r="Q481" s="1" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="482" spans="1:17">
-      <c r="A482">
+    <row r="482" s="1" customFormat="1" spans="1:17">
+      <c r="A482" s="1">
         <v>481</v>
       </c>
-      <c r="B482">
-        <v>2</v>
-      </c>
-      <c r="C482" t="s">
+      <c r="B482" s="1">
+        <v>2</v>
+      </c>
+      <c r="C482" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="D482">
+      <c r="D482" s="1">
         <v>95</v>
       </c>
-      <c r="E482">
+      <c r="E482" s="1">
         <v>96</v>
       </c>
-      <c r="F482">
+      <c r="F482" s="1">
         <v>107</v>
       </c>
-      <c r="G482">
+      <c r="G482" s="1">
         <v>108</v>
       </c>
-      <c r="H482" t="s">
-        <v>22</v>
-      </c>
-      <c r="I482" t="s">
-        <v>22</v>
-      </c>
-      <c r="J482" t="s">
-        <v>22</v>
-      </c>
-      <c r="M482" t="s">
+      <c r="H482" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I482" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J482" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K482" s="7"/>
+      <c r="M482" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="O482" t="s">
+      <c r="O482" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="P482" t="s">
+      <c r="P482" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="Q482" t="s">
+      <c r="Q482" s="1" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="483" spans="1:17">
-      <c r="A483">
+    <row r="483" s="1" customFormat="1" spans="1:17">
+      <c r="A483" s="1">
         <v>482</v>
       </c>
-      <c r="B483">
-        <v>2</v>
-      </c>
-      <c r="C483" t="s">
+      <c r="B483" s="1">
+        <v>2</v>
+      </c>
+      <c r="C483" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="D483">
+      <c r="D483" s="1">
         <v>96</v>
       </c>
-      <c r="E483">
+      <c r="E483" s="1">
         <v>97</v>
       </c>
-      <c r="F483">
+      <c r="F483" s="1">
         <v>108</v>
       </c>
-      <c r="G483">
+      <c r="G483" s="1">
         <v>109</v>
       </c>
-      <c r="H483" t="s">
-        <v>21</v>
-      </c>
-      <c r="I483" t="s">
-        <v>22</v>
-      </c>
-      <c r="J483" t="s">
-        <v>21</v>
-      </c>
-      <c r="M483" t="s">
+      <c r="H483" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I483" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J483" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K483" s="7"/>
+      <c r="M483" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="O483" t="s">
+      <c r="O483" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="P483" t="s">
+      <c r="P483" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="Q483" t="s">
+      <c r="Q483" s="1" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="484" spans="1:17">
-      <c r="A484">
+    <row r="484" s="1" customFormat="1" spans="1:17">
+      <c r="A484" s="1">
         <v>483</v>
       </c>
-      <c r="B484">
-        <v>2</v>
-      </c>
-      <c r="C484" t="s">
+      <c r="B484" s="1">
+        <v>2</v>
+      </c>
+      <c r="C484" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="D484">
+      <c r="D484" s="1">
         <v>97</v>
       </c>
-      <c r="E484">
+      <c r="E484" s="1">
         <v>99</v>
       </c>
-      <c r="F484">
+      <c r="F484" s="1">
         <v>109</v>
       </c>
-      <c r="G484">
+      <c r="G484" s="1">
         <v>111</v>
       </c>
-      <c r="H484" t="s">
-        <v>21</v>
-      </c>
-      <c r="I484" t="s">
-        <v>22</v>
-      </c>
-      <c r="J484" t="s">
-        <v>22</v>
-      </c>
-      <c r="M484" t="s">
+      <c r="H484" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I484" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J484" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K484" s="7"/>
+      <c r="M484" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="O484" t="s">
+      <c r="O484" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="P484" t="s">
+      <c r="P484" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="Q484" t="s">
+      <c r="Q484" s="1" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="485" spans="1:17">
-      <c r="A485">
+    <row r="485" s="1" customFormat="1" spans="1:17">
+      <c r="A485" s="1">
         <v>484</v>
       </c>
-      <c r="B485">
-        <v>2</v>
-      </c>
-      <c r="C485" t="s">
+      <c r="B485" s="1">
+        <v>2</v>
+      </c>
+      <c r="C485" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="D485">
+      <c r="D485" s="1">
         <v>99</v>
       </c>
-      <c r="E485">
+      <c r="E485" s="1">
         <v>100</v>
       </c>
-      <c r="F485">
+      <c r="F485" s="1">
         <v>111</v>
       </c>
-      <c r="G485">
+      <c r="G485" s="1">
         <v>112</v>
       </c>
-      <c r="H485" t="s">
-        <v>21</v>
-      </c>
-      <c r="I485" t="s">
-        <v>22</v>
-      </c>
-      <c r="J485" t="s">
-        <v>22</v>
-      </c>
-      <c r="M485" t="s">
+      <c r="H485" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I485" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J485" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K485" s="7"/>
+      <c r="M485" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="O485" t="s">
+      <c r="O485" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="P485" t="s">
+      <c r="P485" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="Q485" t="s">
+      <c r="Q485" s="1" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="486" spans="1:17">
-      <c r="A486">
+    <row r="486" s="1" customFormat="1" spans="1:17">
+      <c r="A486" s="1">
         <v>485</v>
       </c>
-      <c r="B486">
-        <v>2</v>
-      </c>
-      <c r="C486" t="s">
+      <c r="B486" s="1">
+        <v>2</v>
+      </c>
+      <c r="C486" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="D486">
+      <c r="D486" s="1">
         <v>100</v>
       </c>
-      <c r="E486">
+      <c r="E486" s="1">
         <v>101</v>
       </c>
-      <c r="F486">
+      <c r="F486" s="1">
         <v>112</v>
       </c>
-      <c r="G486">
+      <c r="G486" s="1">
         <v>113</v>
       </c>
-      <c r="H486" t="s">
-        <v>22</v>
-      </c>
-      <c r="I486" t="s">
-        <v>22</v>
-      </c>
-      <c r="J486" t="s">
-        <v>22</v>
-      </c>
-      <c r="M486" t="s">
+      <c r="H486" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I486" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J486" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K486" s="7"/>
+      <c r="M486" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="O486" t="s">
+      <c r="O486" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="P486" t="s">
+      <c r="P486" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="Q486" t="s">
+      <c r="Q486" s="1" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="487" spans="1:17">
-      <c r="A487">
+    <row r="487" s="1" customFormat="1" spans="1:17">
+      <c r="A487" s="1">
         <v>486</v>
       </c>
-      <c r="B487">
-        <v>2</v>
-      </c>
-      <c r="C487" t="s">
+      <c r="B487" s="1">
+        <v>2</v>
+      </c>
+      <c r="C487" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="D487">
+      <c r="D487" s="1">
         <v>101</v>
       </c>
-      <c r="E487">
+      <c r="E487" s="1">
         <v>102</v>
       </c>
-      <c r="F487">
+      <c r="F487" s="1">
         <v>113</v>
       </c>
-      <c r="G487">
+      <c r="G487" s="1">
         <v>114</v>
       </c>
-      <c r="H487" t="s">
-        <v>21</v>
-      </c>
-      <c r="I487" t="s">
-        <v>22</v>
-      </c>
-      <c r="J487" t="s">
-        <v>22</v>
-      </c>
-      <c r="M487" t="s">
+      <c r="H487" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I487" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J487" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K487" s="7"/>
+      <c r="M487" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="O487" t="s">
+      <c r="O487" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="P487" t="s">
+      <c r="P487" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="Q487" t="s">
+      <c r="Q487" s="1" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="488" spans="1:17">
-      <c r="A488">
+    <row r="488" s="1" customFormat="1" spans="1:17">
+      <c r="A488" s="1">
         <v>487</v>
       </c>
-      <c r="B488">
-        <v>2</v>
-      </c>
-      <c r="C488" t="s">
+      <c r="B488" s="1">
+        <v>2</v>
+      </c>
+      <c r="C488" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="D488">
+      <c r="D488" s="1">
         <v>102</v>
       </c>
-      <c r="E488">
+      <c r="E488" s="1">
         <v>106</v>
       </c>
-      <c r="F488">
+      <c r="F488" s="1">
         <v>114</v>
       </c>
-      <c r="G488">
+      <c r="G488" s="1">
         <v>118</v>
       </c>
-      <c r="H488" t="s">
-        <v>21</v>
-      </c>
-      <c r="I488" t="s">
-        <v>22</v>
-      </c>
-      <c r="J488" t="s">
-        <v>21</v>
-      </c>
-      <c r="M488" t="s">
+      <c r="H488" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I488" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J488" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K488" s="7"/>
+      <c r="M488" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="O488" t="s">
+      <c r="O488" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="P488" t="s">
+      <c r="P488" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="Q488" t="s">
+      <c r="Q488" s="1" t="s">
         <v>1196</v>
       </c>
     </row>
